--- a/S32K3/S32K3xx_part_number_dashboard.xlsx
+++ b/S32K3/S32K3xx_part_number_dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A_Workspace\DS\K3\DS\Rev8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\chenzch\Projects\NXP_MCU_FAQ\S32K3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D686FAF6-4660-4CC8-BDBD-0B6B8ABD4BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E869D32D-A99C-4865-A363-B303F7672E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S32K3 part number dashboard" sheetId="4" r:id="rId1"/>
@@ -1503,11 +1503,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1515,7 +1515,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1523,8 +1523,15 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1554,7 +1561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1576,7 +1583,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1589,7 +1595,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1605,7 +1611,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Home"/>
@@ -1676,7 +1682,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="History_Revision"/>
@@ -2041,42 +2047,42 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.875" style="5" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="9"/>
+    <col min="15" max="15" width="9.125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-    </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2116,9 +2122,9 @@
       <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="9"/>
-    </row>
-    <row r="3" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O2"/>
+    </row>
+    <row r="3" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2177,7 +2183,7 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="6"/>
     </row>
-    <row r="4" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2217,7 +2223,7 @@
       <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="10"/>
+      <c r="O4" s="9"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -2237,7 +2243,7 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2297,7 +2303,7 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="6"/>
     </row>
-    <row r="6" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2337,7 +2343,7 @@
       <c r="M6" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="10"/>
+      <c r="O6" s="9"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -2357,7 +2363,7 @@
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
     </row>
-    <row r="7" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2417,7 +2423,7 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
     </row>
-    <row r="8" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2477,7 +2483,7 @@
       <c r="AF8" s="6"/>
       <c r="AG8" s="6"/>
     </row>
-    <row r="9" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2518,7 +2524,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2559,7 +2565,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2600,7 +2606,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2641,7 +2647,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2682,7 +2688,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2723,7 +2729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2764,7 +2770,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2805,7 +2811,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2846,7 +2852,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -2887,7 +2893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2928,7 +2934,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2969,7 +2975,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -3010,7 +3016,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -3051,7 +3057,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -3092,7 +3098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -3133,7 +3139,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -3174,7 +3180,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -3215,7 +3221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -3256,7 +3262,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -3297,7 +3303,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -3338,7 +3344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -3379,7 +3385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -3420,7 +3426,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -3461,7 +3467,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -3502,7 +3508,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -3543,7 +3549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -3584,7 +3590,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -3625,7 +3631,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -3666,7 +3672,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -3707,7 +3713,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -3748,7 +3754,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -3789,7 +3795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -3830,7 +3836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -3871,7 +3877,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -3912,7 +3918,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -3953,7 +3959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -3994,7 +4000,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -4035,7 +4041,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -4076,7 +4082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -4117,7 +4123,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -4158,7 +4164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -4199,7 +4205,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -4240,7 +4246,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -4281,7 +4287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -4322,7 +4328,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -4363,7 +4369,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>88</v>
       </c>
@@ -4404,7 +4410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>88</v>
       </c>
@@ -4445,7 +4451,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -4486,7 +4492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -4527,7 +4533,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>88</v>
       </c>
@@ -4568,7 +4574,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>88</v>
       </c>
@@ -4609,7 +4615,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>88</v>
       </c>
@@ -4650,7 +4656,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>88</v>
       </c>
@@ -4691,7 +4697,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -4732,7 +4738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -4773,7 +4779,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>88</v>
       </c>
@@ -4814,7 +4820,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>88</v>
       </c>
@@ -4855,7 +4861,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>88</v>
       </c>
@@ -4896,7 +4902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>88</v>
       </c>
@@ -4937,7 +4943,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>88</v>
       </c>
@@ -4978,7 +4984,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>88</v>
       </c>
@@ -5019,7 +5025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>88</v>
       </c>
@@ -5060,7 +5066,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>88</v>
       </c>
@@ -5101,7 +5107,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -5142,7 +5148,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>88</v>
       </c>
@@ -5183,7 +5189,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -5224,7 +5230,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -5265,7 +5271,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -5306,7 +5312,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>88</v>
       </c>
@@ -5347,7 +5353,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>88</v>
       </c>
@@ -5388,7 +5394,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>88</v>
       </c>
@@ -5429,7 +5435,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>88</v>
       </c>
@@ -5470,7 +5476,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -5511,7 +5517,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -5552,7 +5558,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -5593,7 +5599,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -5634,7 +5640,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -5675,7 +5681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>126</v>
       </c>
@@ -5716,7 +5722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>126</v>
       </c>
@@ -5757,7 +5763,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>126</v>
       </c>
@@ -5798,7 +5804,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>126</v>
       </c>
@@ -5839,7 +5845,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>126</v>
       </c>
@@ -5880,7 +5886,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>126</v>
       </c>
@@ -5921,7 +5927,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>126</v>
       </c>
@@ -5962,7 +5968,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>126</v>
       </c>
@@ -6003,7 +6009,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>126</v>
       </c>
@@ -6044,7 +6050,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>126</v>
       </c>
@@ -6085,7 +6091,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>126</v>
       </c>
@@ -6126,7 +6132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>126</v>
       </c>
@@ -6167,7 +6173,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>126</v>
       </c>
@@ -6208,7 +6214,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>126</v>
       </c>
@@ -6249,7 +6255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>126</v>
       </c>
@@ -6290,7 +6296,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>126</v>
       </c>
@@ -6331,7 +6337,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>126</v>
       </c>
@@ -6372,7 +6378,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>126</v>
       </c>
@@ -6413,7 +6419,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>126</v>
       </c>
@@ -6454,7 +6460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>126</v>
       </c>
@@ -6495,7 +6501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>126</v>
       </c>
@@ -6536,7 +6542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>126</v>
       </c>
@@ -6577,7 +6583,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>126</v>
       </c>
@@ -6618,7 +6624,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>126</v>
       </c>
@@ -6659,7 +6665,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>126</v>
       </c>
@@ -6700,7 +6706,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -6741,7 +6747,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>155</v>
       </c>
@@ -6782,7 +6788,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>155</v>
       </c>
@@ -6823,7 +6829,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>155</v>
       </c>
@@ -6864,7 +6870,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>155</v>
       </c>
@@ -6905,7 +6911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>155</v>
       </c>
@@ -6946,7 +6952,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>155</v>
       </c>
@@ -6987,7 +6993,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>155</v>
       </c>
@@ -7028,7 +7034,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>155</v>
       </c>
@@ -7069,7 +7075,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>155</v>
       </c>
@@ -7110,7 +7116,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>155</v>
       </c>
@@ -7151,7 +7157,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>155</v>
       </c>
@@ -7192,7 +7198,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>155</v>
       </c>
@@ -7233,7 +7239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>155</v>
       </c>
@@ -7274,7 +7280,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>155</v>
       </c>
@@ -7315,7 +7321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>155</v>
       </c>
@@ -7356,7 +7362,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>155</v>
       </c>
@@ -7397,7 +7403,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>155</v>
       </c>
@@ -7438,7 +7444,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>155</v>
       </c>
@@ -7479,7 +7485,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>155</v>
       </c>
@@ -7520,7 +7526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>155</v>
       </c>
@@ -7561,7 +7567,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>155</v>
       </c>
@@ -7602,7 +7608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>155</v>
       </c>
@@ -7643,7 +7649,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>155</v>
       </c>
@@ -7684,7 +7690,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>155</v>
       </c>
@@ -7725,7 +7731,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>155</v>
       </c>
@@ -7766,7 +7772,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>155</v>
       </c>
@@ -7807,7 +7813,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>155</v>
       </c>
@@ -7848,7 +7854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>155</v>
       </c>
@@ -7889,7 +7895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>155</v>
       </c>
@@ -7930,7 +7936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>155</v>
       </c>
@@ -7971,7 +7977,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>155</v>
       </c>
@@ -8012,7 +8018,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>155</v>
       </c>
@@ -8053,7 +8059,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>155</v>
       </c>
@@ -8094,7 +8100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>155</v>
       </c>
@@ -8135,7 +8141,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>191</v>
       </c>
@@ -8176,7 +8182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>191</v>
       </c>
@@ -8217,7 +8223,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>191</v>
       </c>
@@ -8258,7 +8264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>191</v>
       </c>
@@ -8299,7 +8305,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>191</v>
       </c>
@@ -8340,7 +8346,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>191</v>
       </c>
@@ -8381,7 +8387,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>191</v>
       </c>
@@ -8422,7 +8428,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>191</v>
       </c>
@@ -8463,7 +8469,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>191</v>
       </c>
@@ -8504,7 +8510,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>191</v>
       </c>
@@ -8545,7 +8551,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>191</v>
       </c>
@@ -8586,7 +8592,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>191</v>
       </c>
@@ -8627,7 +8633,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>191</v>
       </c>
@@ -8668,7 +8674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>191</v>
       </c>
@@ -8709,7 +8715,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>191</v>
       </c>
@@ -8750,7 +8756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>191</v>
       </c>
@@ -8791,7 +8797,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>155</v>
       </c>
@@ -8832,7 +8838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>155</v>
       </c>
@@ -8873,7 +8879,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>191</v>
       </c>
@@ -8914,7 +8920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>191</v>
       </c>
@@ -8955,7 +8961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>191</v>
       </c>
@@ -8996,7 +9002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>191</v>
       </c>
@@ -9037,7 +9043,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>191</v>
       </c>
@@ -9078,7 +9084,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>191</v>
       </c>
@@ -9119,7 +9125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>191</v>
       </c>
@@ -9160,7 +9166,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>191</v>
       </c>
@@ -9201,7 +9207,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>191</v>
       </c>
@@ -9242,7 +9248,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>191</v>
       </c>
@@ -9283,7 +9289,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>191</v>
       </c>
@@ -9324,7 +9330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>191</v>
       </c>
@@ -9365,7 +9371,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -9406,7 +9412,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>191</v>
       </c>
@@ -9447,7 +9453,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>191</v>
       </c>
@@ -9488,7 +9494,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>191</v>
       </c>
@@ -9529,7 +9535,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>226</v>
       </c>
@@ -9570,7 +9576,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>226</v>
       </c>
@@ -9611,7 +9617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>226</v>
       </c>
@@ -9652,7 +9658,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>226</v>
       </c>
@@ -9693,7 +9699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>226</v>
       </c>
@@ -9734,7 +9740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>226</v>
       </c>
@@ -9775,7 +9781,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>226</v>
       </c>
@@ -9816,7 +9822,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>226</v>
       </c>
@@ -9857,7 +9863,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>226</v>
       </c>
@@ -9898,7 +9904,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>226</v>
       </c>
@@ -9939,7 +9945,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>226</v>
       </c>
@@ -9980,7 +9986,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>226</v>
       </c>
@@ -10021,7 +10027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>226</v>
       </c>
@@ -10062,7 +10068,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>226</v>
       </c>
@@ -10103,7 +10109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>226</v>
       </c>
@@ -10144,7 +10150,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>226</v>
       </c>
@@ -10185,7 +10191,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>226</v>
       </c>
@@ -10226,7 +10232,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>226</v>
       </c>
@@ -10267,7 +10273,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>226</v>
       </c>
@@ -10308,7 +10314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>226</v>
       </c>
@@ -10349,7 +10355,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>226</v>
       </c>
@@ -10390,7 +10396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>226</v>
       </c>
@@ -10431,7 +10437,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>226</v>
       </c>
@@ -10472,7 +10478,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>226</v>
       </c>
@@ -10513,7 +10519,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>226</v>
       </c>
@@ -10554,7 +10560,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>226</v>
       </c>
@@ -10595,7 +10601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>226</v>
       </c>
@@ -10636,7 +10642,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>226</v>
       </c>
@@ -10677,7 +10683,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>226</v>
       </c>
@@ -10718,7 +10724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -10759,7 +10765,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>226</v>
       </c>
@@ -10800,7 +10806,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>226</v>
       </c>
@@ -10841,7 +10847,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>226</v>
       </c>
@@ -10882,7 +10888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>226</v>
       </c>
@@ -10923,7 +10929,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>262</v>
       </c>
@@ -10964,7 +10970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>262</v>
       </c>
@@ -11005,7 +11011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>262</v>
       </c>
@@ -11046,7 +11052,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>262</v>
       </c>
@@ -11087,7 +11093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>262</v>
       </c>
@@ -11128,7 +11134,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>262</v>
       </c>
@@ -11169,7 +11175,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>262</v>
       </c>
@@ -11210,7 +11216,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>262</v>
       </c>
@@ -11251,7 +11257,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>262</v>
       </c>
@@ -11292,7 +11298,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>262</v>
       </c>
@@ -11333,7 +11339,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>262</v>
       </c>
@@ -11374,7 +11380,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>262</v>
       </c>
@@ -11415,7 +11421,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>262</v>
       </c>
@@ -11456,7 +11462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>262</v>
       </c>
@@ -11497,7 +11503,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>262</v>
       </c>
@@ -11538,7 +11544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>262</v>
       </c>
@@ -11579,7 +11585,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>262</v>
       </c>
@@ -11620,7 +11626,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>262</v>
       </c>
@@ -11661,7 +11667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>262</v>
       </c>
@@ -11702,7 +11708,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>262</v>
       </c>
@@ -11743,7 +11749,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>262</v>
       </c>
@@ -11784,7 +11790,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>262</v>
       </c>
@@ -11825,7 +11831,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>262</v>
       </c>
@@ -11866,7 +11872,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>262</v>
       </c>
@@ -11907,7 +11913,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>262</v>
       </c>
@@ -11948,7 +11954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>262</v>
       </c>
@@ -11989,7 +11995,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>262</v>
       </c>
@@ -12030,7 +12036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>262</v>
       </c>
@@ -12071,7 +12077,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>262</v>
       </c>
@@ -12112,7 +12118,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>262</v>
       </c>
@@ -12153,7 +12159,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>262</v>
       </c>
@@ -12194,7 +12200,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -12235,7 +12241,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>295</v>
       </c>
@@ -12276,7 +12282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>295</v>
       </c>
@@ -12317,7 +12323,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>295</v>
       </c>
@@ -12358,7 +12364,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>295</v>
       </c>
@@ -12399,7 +12405,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>295</v>
       </c>
@@ -12440,7 +12446,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>295</v>
       </c>
@@ -12481,7 +12487,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>295</v>
       </c>
@@ -12522,7 +12528,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>295</v>
       </c>
@@ -12563,7 +12569,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>295</v>
       </c>
@@ -12604,7 +12610,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>295</v>
       </c>
@@ -12645,7 +12651,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>295</v>
       </c>
@@ -12686,7 +12692,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>295</v>
       </c>
@@ -12727,7 +12733,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>295</v>
       </c>
@@ -12768,7 +12774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>295</v>
       </c>
@@ -12809,7 +12815,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>295</v>
       </c>
@@ -12850,7 +12856,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>295</v>
       </c>
@@ -12891,7 +12897,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -12932,7 +12938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>262</v>
       </c>
@@ -12973,7 +12979,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>295</v>
       </c>
@@ -13014,7 +13020,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>295</v>
       </c>
@@ -13055,7 +13061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>295</v>
       </c>
@@ -13096,7 +13102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>295</v>
       </c>
@@ -13137,7 +13143,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>295</v>
       </c>
@@ -13178,7 +13184,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>295</v>
       </c>
@@ -13219,7 +13225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>295</v>
       </c>
@@ -13260,7 +13266,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>295</v>
       </c>
@@ -13301,7 +13307,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>295</v>
       </c>
@@ -13342,7 +13348,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>295</v>
       </c>
@@ -13383,7 +13389,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>295</v>
       </c>
@@ -13424,7 +13430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>295</v>
       </c>
@@ -13465,7 +13471,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>295</v>
       </c>
@@ -13506,7 +13512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>295</v>
       </c>
@@ -13547,7 +13553,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>295</v>
       </c>
@@ -13588,7 +13594,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>295</v>
       </c>
@@ -13629,7 +13635,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>328</v>
       </c>
@@ -13670,7 +13676,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>328</v>
       </c>
@@ -13711,7 +13717,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>328</v>
       </c>
@@ -13752,7 +13758,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>328</v>
       </c>
@@ -13793,7 +13799,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>328</v>
       </c>
@@ -13834,7 +13840,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>328</v>
       </c>
@@ -13875,7 +13881,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>328</v>
       </c>
@@ -13916,7 +13922,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>328</v>
       </c>
@@ -13957,7 +13963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>328</v>
       </c>
@@ -13998,7 +14004,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>328</v>
       </c>
@@ -14039,7 +14045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>328</v>
       </c>
@@ -14080,7 +14086,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>328</v>
       </c>
@@ -14121,7 +14127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>328</v>
       </c>
@@ -14162,7 +14168,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>328</v>
       </c>
@@ -14203,7 +14209,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>328</v>
       </c>
@@ -14244,7 +14250,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>328</v>
       </c>
@@ -14285,7 +14291,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>328</v>
       </c>
@@ -14326,7 +14332,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>328</v>
       </c>
@@ -14367,7 +14373,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>328</v>
       </c>
@@ -14408,7 +14414,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>328</v>
       </c>
@@ -14449,7 +14455,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>328</v>
       </c>
@@ -14490,7 +14496,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>328</v>
       </c>
@@ -14531,7 +14537,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>328</v>
       </c>
@@ -14572,7 +14578,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="304" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>328</v>
       </c>
@@ -14613,7 +14619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>328</v>
       </c>
@@ -14654,7 +14660,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="306" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>328</v>
       </c>
@@ -14695,7 +14701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="307" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>328</v>
       </c>
@@ -14736,7 +14742,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="308" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>328</v>
       </c>
@@ -14777,7 +14783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="309" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>328</v>
       </c>
@@ -14818,7 +14824,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="310" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>328</v>
       </c>
@@ -14859,7 +14865,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>328</v>
       </c>
@@ -14900,7 +14906,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="312" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>328</v>
       </c>
@@ -14941,7 +14947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="313" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>366</v>
       </c>
@@ -14982,7 +14988,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>366</v>
       </c>
@@ -15023,7 +15029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="315" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>366</v>
       </c>
@@ -15064,7 +15070,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="316" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>366</v>
       </c>
@@ -15105,7 +15111,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="317" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>366</v>
       </c>
@@ -15146,7 +15152,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="318" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>366</v>
       </c>
@@ -15187,7 +15193,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="319" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>366</v>
       </c>
@@ -15228,7 +15234,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>366</v>
       </c>
@@ -15269,7 +15275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="321" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>366</v>
       </c>
@@ -15310,7 +15316,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>366</v>
       </c>
@@ -15351,7 +15357,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>366</v>
       </c>
@@ -15392,7 +15398,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>366</v>
       </c>
@@ -15433,7 +15439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="325" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>366</v>
       </c>
@@ -15474,7 +15480,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>366</v>
       </c>
@@ -15515,7 +15521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="327" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>366</v>
       </c>
@@ -15556,7 +15562,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="328" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>366</v>
       </c>
@@ -15597,7 +15603,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="329" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>366</v>
       </c>
@@ -15638,7 +15644,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="330" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>366</v>
       </c>
@@ -15679,7 +15685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="331" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>366</v>
       </c>
@@ -15720,7 +15726,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="332" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>366</v>
       </c>
@@ -15761,7 +15767,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>366</v>
       </c>
@@ -15802,7 +15808,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="334" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>366</v>
       </c>
@@ -15843,7 +15849,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="335" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>366</v>
       </c>
@@ -15884,7 +15890,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="336" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>366</v>
       </c>
@@ -15925,7 +15931,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>366</v>
       </c>
@@ -15966,7 +15972,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="338" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>366</v>
       </c>
@@ -16007,7 +16013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>366</v>
       </c>
@@ -16048,7 +16054,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="340" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>366</v>
       </c>
@@ -16089,7 +16095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="341" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>366</v>
       </c>
@@ -16130,7 +16136,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="342" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>366</v>
       </c>
@@ -16171,7 +16177,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="343" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>366</v>
       </c>
@@ -16212,7 +16218,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="344" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>366</v>
       </c>
@@ -16253,7 +16259,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>401</v>
       </c>
@@ -16294,7 +16300,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="346" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>401</v>
       </c>
@@ -16335,7 +16341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="347" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>401</v>
       </c>
@@ -16376,7 +16382,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="348" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>401</v>
       </c>
@@ -16417,7 +16423,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="349" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>401</v>
       </c>
@@ -16458,7 +16464,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="350" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>401</v>
       </c>
@@ -16499,7 +16505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="351" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>401</v>
       </c>
@@ -16540,7 +16546,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="352" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>401</v>
       </c>
@@ -16581,7 +16587,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="353" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>401</v>
       </c>
@@ -16622,7 +16628,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>401</v>
       </c>
@@ -16663,7 +16669,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="355" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>401</v>
       </c>
@@ -16704,7 +16710,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>401</v>
       </c>
@@ -16745,7 +16751,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="357" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>401</v>
       </c>
@@ -16786,7 +16792,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="358" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>401</v>
       </c>
@@ -16827,7 +16833,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="359" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>401</v>
       </c>
@@ -16868,7 +16874,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="360" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>401</v>
       </c>
@@ -16909,7 +16915,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="361" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>401</v>
       </c>
@@ -16950,7 +16956,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="362" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>401</v>
       </c>
@@ -16991,7 +16997,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="363" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>401</v>
       </c>
@@ -17032,7 +17038,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="364" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>401</v>
       </c>
@@ -17073,7 +17079,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="365" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>401</v>
       </c>
@@ -17114,7 +17120,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="366" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>401</v>
       </c>
@@ -17155,7 +17161,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="367" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>401</v>
       </c>
@@ -17196,7 +17202,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="368" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>401</v>
       </c>
@@ -17237,7 +17243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="369" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>401</v>
       </c>
@@ -17278,7 +17284,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="370" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>401</v>
       </c>
@@ -17319,7 +17325,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="371" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -17360,7 +17366,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="372" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>401</v>
       </c>
@@ -17401,7 +17407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="373" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>401</v>
       </c>
@@ -17442,7 +17448,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="374" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>401</v>
       </c>
@@ -17483,7 +17489,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="375" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>401</v>
       </c>
@@ -17524,7 +17530,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="376" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>401</v>
       </c>
@@ -17565,7 +17571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="377" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>434</v>
       </c>
@@ -17606,7 +17612,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>434</v>
       </c>
@@ -17647,7 +17653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="379" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>434</v>
       </c>
@@ -17688,7 +17694,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>434</v>
       </c>
@@ -17729,7 +17735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="381" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>434</v>
       </c>
@@ -17770,7 +17776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="382" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>434</v>
       </c>
@@ -17811,7 +17817,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="383" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>434</v>
       </c>
@@ -17852,7 +17858,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="384" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>434</v>
       </c>
@@ -17893,7 +17899,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="385" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>434</v>
       </c>
@@ -17934,7 +17940,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>434</v>
       </c>
@@ -17975,7 +17981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="387" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>434</v>
       </c>
@@ -18016,7 +18022,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>434</v>
       </c>
@@ -18057,7 +18063,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="389" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>434</v>
       </c>
@@ -18098,7 +18104,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="390" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>434</v>
       </c>
@@ -18139,7 +18145,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="391" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>434</v>
       </c>
@@ -18180,7 +18186,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="392" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>434</v>
       </c>
@@ -18221,7 +18227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="393" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>434</v>
       </c>
@@ -18262,7 +18268,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>434</v>
       </c>
@@ -18303,7 +18309,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="395" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>434</v>
       </c>
@@ -18344,7 +18350,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>434</v>
       </c>
@@ -18385,7 +18391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="397" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>434</v>
       </c>
@@ -18426,7 +18432,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="398" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>434</v>
       </c>
@@ -18467,7 +18473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="399" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>434</v>
       </c>
@@ -18508,7 +18514,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="400" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>434</v>
       </c>
@@ -18549,7 +18555,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="401" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>434</v>
       </c>
@@ -18590,7 +18596,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="402" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>434</v>
       </c>
@@ -18631,7 +18637,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="403" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>434</v>
       </c>
@@ -18672,7 +18678,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="404" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>434</v>
       </c>
@@ -18713,7 +18719,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="405" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>434</v>
       </c>
@@ -18754,7 +18760,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="406" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>434</v>
       </c>
@@ -18795,7 +18801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="407" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>434</v>
       </c>
@@ -18836,7 +18842,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="408" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>434</v>
       </c>
@@ -18877,7 +18883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>328</v>
       </c>
@@ -18918,7 +18924,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>328</v>
       </c>
@@ -18959,7 +18965,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>434</v>
       </c>
@@ -19000,7 +19006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>434</v>
       </c>
@@ -19041,10 +19047,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C414"/>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C416"/>
     </row>
   </sheetData>
@@ -19052,6 +19058,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -19065,13 +19072,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="60.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="60.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>476</v>
       </c>
@@ -19082,7 +19089,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -19090,11 +19097,11 @@
         <v>479</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>45062</v>
       </c>
       <c r="C3" t="s">
@@ -19102,11 +19109,56 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ProductFamily1 xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <DocType xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">-</DocType>
+    <AdminPublishingStatus xmlns="d6e223a9-2ed3-49eb-a144-c7920aace86d" xsi:nil="true"/>
+    <AdminComments xmlns="d6e223a9-2ed3-49eb-a144-c7920aace86d" xsi:nil="true"/>
+    <ProductFamily xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">-</ProductFamily>
+    <ProductLine1 xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <Product1 xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <TypeofDocument xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <BLPublishingStatus xmlns="d6e223a9-2ed3-49eb-a144-c7920aace86d">Not Ready for Publishing</BLPublishingStatus>
+    <RevisionDate xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="c4672b8b-43e2-4139-8cd1-27ad03f081e7" xsi:nil="true"/>
+    <f508be0a0b024b158bf26b5c5377e7cf xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f508be0a0b024b158bf26b5c5377e7cf>
+    <Product xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">-</Product>
+    <TypeofRequest xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <qttm xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <DocVersion xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <ProductLine xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">GPIS</ProductLine>
+    <b301e47fc8e747e89089776eea6c567d xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b301e47fc8e747e89089776eea6c567d>
+    <BriefDescription xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <KeyProduct_x0028_s_x0029_ xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <DocumentTitle xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007EDDDBC4FB296F4F9CB63BAE8760DE1A" ma:contentTypeVersion="54" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fc9298e5f362f8b2a2f1539074131357">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e6a1524d-d10d-4703-8343-a785c2cc36c3" xmlns:ns3="d6e223a9-2ed3-49eb-a144-c7920aace86d" xmlns:ns4="c4672b8b-43e2-4139-8cd1-27ad03f081e7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4374d41095fb9fe455f76c5bbb6d7977" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="e6a1524d-d10d-4703-8343-a785c2cc36c3"/>
@@ -19615,51 +19667,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ProductFamily1 xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <DocType xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">-</DocType>
-    <AdminPublishingStatus xmlns="d6e223a9-2ed3-49eb-a144-c7920aace86d" xsi:nil="true"/>
-    <AdminComments xmlns="d6e223a9-2ed3-49eb-a144-c7920aace86d" xsi:nil="true"/>
-    <ProductFamily xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">-</ProductFamily>
-    <ProductLine1 xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <Product1 xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <TypeofDocument xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <BLPublishingStatus xmlns="d6e223a9-2ed3-49eb-a144-c7920aace86d">Not Ready for Publishing</BLPublishingStatus>
-    <RevisionDate xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="c4672b8b-43e2-4139-8cd1-27ad03f081e7" xsi:nil="true"/>
-    <f508be0a0b024b158bf26b5c5377e7cf xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f508be0a0b024b158bf26b5c5377e7cf>
-    <Product xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">-</Product>
-    <TypeofRequest xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <qttm xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <DocVersion xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <ProductLine xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">GPIS</ProductLine>
-    <b301e47fc8e747e89089776eea6c567d xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b301e47fc8e747e89089776eea6c567d>
-    <BriefDescription xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <KeyProduct_x0028_s_x0029_ xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <DocumentTitle xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D85D5D23-A9E4-4E12-B1AB-482CBACB0142}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3885A1BC-8E66-40C5-AEFB-2E33C6BCFE01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e6a1524d-d10d-4703-8343-a785c2cc36c3"/>
+    <ds:schemaRef ds:uri="d6e223a9-2ed3-49eb-a144-c7920aace86d"/>
+    <ds:schemaRef ds:uri="c4672b8b-43e2-4139-8cd1-27ad03f081e7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7CD1CAE-1C94-4628-9704-244F487C11F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19677,24 +19705,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3885A1BC-8E66-40C5-AEFB-2E33C6BCFE01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e6a1524d-d10d-4703-8343-a785c2cc36c3"/>
-    <ds:schemaRef ds:uri="d6e223a9-2ed3-49eb-a144-c7920aace86d"/>
-    <ds:schemaRef ds:uri="c4672b8b-43e2-4139-8cd1-27ad03f081e7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D85D5D23-A9E4-4E12-B1AB-482CBACB0142}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/S32K3/S32K3xx_part_number_dashboard.xlsx
+++ b/S32K3/S32K3xx_part_number_dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\chenzch\Projects\NXP_MCU_FAQ\S32K3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\A_Workspace\DS\K3\DS\Rev8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E869D32D-A99C-4865-A363-B303F7672E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D686FAF6-4660-4CC8-BDBD-0B6B8ABD4BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S32K3 part number dashboard" sheetId="4" r:id="rId1"/>
@@ -1503,11 +1503,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1515,7 +1515,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1523,15 +1523,8 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1561,7 +1554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1583,6 +1576,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1595,7 +1589,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1611,7 +1605,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Home"/>
@@ -1682,7 +1676,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="History_Revision"/>
@@ -2047,42 +2041,42 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.125"/>
+    <col min="15" max="15" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-    </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2122,9 +2116,9 @@
       <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O2"/>
-    </row>
-    <row r="3" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O2" s="9"/>
+    </row>
+    <row r="3" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2183,7 +2177,7 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="6"/>
     </row>
-    <row r="4" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2223,7 +2217,7 @@
       <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="9"/>
+      <c r="O4" s="10"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
@@ -2243,7 +2237,7 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2303,7 +2297,7 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="6"/>
     </row>
-    <row r="6" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2343,7 +2337,7 @@
       <c r="M6" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="9"/>
+      <c r="O6" s="10"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
@@ -2363,7 +2357,7 @@
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2423,7 +2417,7 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2483,7 +2477,7 @@
       <c r="AF8" s="6"/>
       <c r="AG8" s="6"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2524,7 +2518,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2565,7 +2559,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2606,7 +2600,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2647,7 +2641,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2688,7 +2682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2729,7 +2723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2770,7 +2764,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2811,7 +2805,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2852,7 +2846,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -2893,7 +2887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2934,7 +2928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2975,7 +2969,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -3016,7 +3010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -3057,7 +3051,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -3098,7 +3092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -3139,7 +3133,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -3180,7 +3174,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -3221,7 +3215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -3262,7 +3256,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -3303,7 +3297,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -3344,7 +3338,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -3385,7 +3379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -3426,7 +3420,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -3467,7 +3461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -3508,7 +3502,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -3549,7 +3543,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -3590,7 +3584,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -3631,7 +3625,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -3672,7 +3666,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -3713,7 +3707,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -3754,7 +3748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -3795,7 +3789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -3836,7 +3830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -3877,7 +3871,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -3918,7 +3912,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -3959,7 +3953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -4000,7 +3994,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -4041,7 +4035,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -4082,7 +4076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -4123,7 +4117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -4164,7 +4158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -4205,7 +4199,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -4246,7 +4240,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -4287,7 +4281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -4328,7 +4322,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -4369,7 +4363,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>88</v>
       </c>
@@ -4410,7 +4404,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>88</v>
       </c>
@@ -4451,7 +4445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -4492,7 +4486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>88</v>
       </c>
@@ -4533,7 +4527,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>88</v>
       </c>
@@ -4574,7 +4568,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>88</v>
       </c>
@@ -4615,7 +4609,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>88</v>
       </c>
@@ -4656,7 +4650,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>88</v>
       </c>
@@ -4697,7 +4691,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -4738,7 +4732,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>88</v>
       </c>
@@ -4779,7 +4773,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>88</v>
       </c>
@@ -4820,7 +4814,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>88</v>
       </c>
@@ -4861,7 +4855,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>88</v>
       </c>
@@ -4902,7 +4896,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>88</v>
       </c>
@@ -4943,7 +4937,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>88</v>
       </c>
@@ -4984,7 +4978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>88</v>
       </c>
@@ -5025,7 +5019,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>88</v>
       </c>
@@ -5066,7 +5060,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>88</v>
       </c>
@@ -5107,7 +5101,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -5148,7 +5142,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>88</v>
       </c>
@@ -5189,7 +5183,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -5230,7 +5224,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -5271,7 +5265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -5312,7 +5306,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>88</v>
       </c>
@@ -5353,7 +5347,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>88</v>
       </c>
@@ -5394,7 +5388,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>88</v>
       </c>
@@ -5435,7 +5429,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>88</v>
       </c>
@@ -5476,7 +5470,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -5517,7 +5511,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>88</v>
       </c>
@@ -5558,7 +5552,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -5599,7 +5593,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -5640,7 +5634,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -5681,7 +5675,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>126</v>
       </c>
@@ -5722,7 +5716,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>126</v>
       </c>
@@ -5763,7 +5757,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>126</v>
       </c>
@@ -5804,7 +5798,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>126</v>
       </c>
@@ -5845,7 +5839,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>126</v>
       </c>
@@ -5886,7 +5880,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>126</v>
       </c>
@@ -5927,7 +5921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>126</v>
       </c>
@@ -5968,7 +5962,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>126</v>
       </c>
@@ -6009,7 +6003,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>126</v>
       </c>
@@ -6050,7 +6044,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>126</v>
       </c>
@@ -6091,7 +6085,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>126</v>
       </c>
@@ -6132,7 +6126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>126</v>
       </c>
@@ -6173,7 +6167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>126</v>
       </c>
@@ -6214,7 +6208,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>126</v>
       </c>
@@ -6255,7 +6249,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>126</v>
       </c>
@@ -6296,7 +6290,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>126</v>
       </c>
@@ -6337,7 +6331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>126</v>
       </c>
@@ -6378,7 +6372,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>126</v>
       </c>
@@ -6419,7 +6413,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>126</v>
       </c>
@@ -6460,7 +6454,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>126</v>
       </c>
@@ -6501,7 +6495,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>126</v>
       </c>
@@ -6542,7 +6536,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>126</v>
       </c>
@@ -6583,7 +6577,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>126</v>
       </c>
@@ -6624,7 +6618,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>126</v>
       </c>
@@ -6665,7 +6659,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>126</v>
       </c>
@@ -6706,7 +6700,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>126</v>
       </c>
@@ -6747,7 +6741,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>155</v>
       </c>
@@ -6788,7 +6782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>155</v>
       </c>
@@ -6829,7 +6823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>155</v>
       </c>
@@ -6870,7 +6864,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>155</v>
       </c>
@@ -6911,7 +6905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>155</v>
       </c>
@@ -6952,7 +6946,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>155</v>
       </c>
@@ -6993,7 +6987,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>155</v>
       </c>
@@ -7034,7 +7028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>155</v>
       </c>
@@ -7075,7 +7069,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>155</v>
       </c>
@@ -7116,7 +7110,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>155</v>
       </c>
@@ -7157,7 +7151,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>155</v>
       </c>
@@ -7198,7 +7192,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>155</v>
       </c>
@@ -7239,7 +7233,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>155</v>
       </c>
@@ -7280,7 +7274,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>155</v>
       </c>
@@ -7321,7 +7315,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>155</v>
       </c>
@@ -7362,7 +7356,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>155</v>
       </c>
@@ -7403,7 +7397,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>155</v>
       </c>
@@ -7444,7 +7438,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>155</v>
       </c>
@@ -7485,7 +7479,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>155</v>
       </c>
@@ -7526,7 +7520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>155</v>
       </c>
@@ -7567,7 +7561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>155</v>
       </c>
@@ -7608,7 +7602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>155</v>
       </c>
@@ -7649,7 +7643,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>155</v>
       </c>
@@ -7690,7 +7684,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>155</v>
       </c>
@@ -7731,7 +7725,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>155</v>
       </c>
@@ -7772,7 +7766,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>155</v>
       </c>
@@ -7813,7 +7807,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>155</v>
       </c>
@@ -7854,7 +7848,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>155</v>
       </c>
@@ -7895,7 +7889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>155</v>
       </c>
@@ -7936,7 +7930,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>155</v>
       </c>
@@ -7977,7 +7971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>155</v>
       </c>
@@ -8018,7 +8012,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>155</v>
       </c>
@@ -8059,7 +8053,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>155</v>
       </c>
@@ -8100,7 +8094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>155</v>
       </c>
@@ -8141,7 +8135,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>191</v>
       </c>
@@ -8182,7 +8176,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>191</v>
       </c>
@@ -8223,7 +8217,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>191</v>
       </c>
@@ -8264,7 +8258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>191</v>
       </c>
@@ -8305,7 +8299,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>191</v>
       </c>
@@ -8346,7 +8340,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>191</v>
       </c>
@@ -8387,7 +8381,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>191</v>
       </c>
@@ -8428,7 +8422,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>191</v>
       </c>
@@ -8469,7 +8463,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>191</v>
       </c>
@@ -8510,7 +8504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>191</v>
       </c>
@@ -8551,7 +8545,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>191</v>
       </c>
@@ -8592,7 +8586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>191</v>
       </c>
@@ -8633,7 +8627,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>191</v>
       </c>
@@ -8674,7 +8668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>191</v>
       </c>
@@ -8715,7 +8709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>191</v>
       </c>
@@ -8756,7 +8750,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>191</v>
       </c>
@@ -8797,7 +8791,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>155</v>
       </c>
@@ -8838,7 +8832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>155</v>
       </c>
@@ -8879,7 +8873,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>191</v>
       </c>
@@ -8920,7 +8914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>191</v>
       </c>
@@ -8961,7 +8955,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>191</v>
       </c>
@@ -9002,7 +8996,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>191</v>
       </c>
@@ -9043,7 +9037,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>191</v>
       </c>
@@ -9084,7 +9078,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>191</v>
       </c>
@@ -9125,7 +9119,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>191</v>
       </c>
@@ -9166,7 +9160,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>191</v>
       </c>
@@ -9207,7 +9201,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>191</v>
       </c>
@@ -9248,7 +9242,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>191</v>
       </c>
@@ -9289,7 +9283,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>191</v>
       </c>
@@ -9330,7 +9324,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>191</v>
       </c>
@@ -9371,7 +9365,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>191</v>
       </c>
@@ -9412,7 +9406,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>191</v>
       </c>
@@ -9453,7 +9447,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>191</v>
       </c>
@@ -9494,7 +9488,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>191</v>
       </c>
@@ -9535,7 +9529,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>226</v>
       </c>
@@ -9576,7 +9570,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>226</v>
       </c>
@@ -9617,7 +9611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>226</v>
       </c>
@@ -9658,7 +9652,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>226</v>
       </c>
@@ -9699,7 +9693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>226</v>
       </c>
@@ -9740,7 +9734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>226</v>
       </c>
@@ -9781,7 +9775,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>226</v>
       </c>
@@ -9822,7 +9816,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>226</v>
       </c>
@@ -9863,7 +9857,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>226</v>
       </c>
@@ -9904,7 +9898,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>226</v>
       </c>
@@ -9945,7 +9939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>226</v>
       </c>
@@ -9986,7 +9980,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>226</v>
       </c>
@@ -10027,7 +10021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>226</v>
       </c>
@@ -10068,7 +10062,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>226</v>
       </c>
@@ -10109,7 +10103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>226</v>
       </c>
@@ -10150,7 +10144,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>226</v>
       </c>
@@ -10191,7 +10185,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>226</v>
       </c>
@@ -10232,7 +10226,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>226</v>
       </c>
@@ -10273,7 +10267,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>226</v>
       </c>
@@ -10314,7 +10308,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>226</v>
       </c>
@@ -10355,7 +10349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>226</v>
       </c>
@@ -10396,7 +10390,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>226</v>
       </c>
@@ -10437,7 +10431,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>226</v>
       </c>
@@ -10478,7 +10472,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>226</v>
       </c>
@@ -10519,7 +10513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>226</v>
       </c>
@@ -10560,7 +10554,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>226</v>
       </c>
@@ -10601,7 +10595,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>226</v>
       </c>
@@ -10642,7 +10636,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>226</v>
       </c>
@@ -10683,7 +10677,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>226</v>
       </c>
@@ -10724,7 +10718,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>226</v>
       </c>
@@ -10765,7 +10759,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>226</v>
       </c>
@@ -10806,7 +10800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>226</v>
       </c>
@@ -10847,7 +10841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>226</v>
       </c>
@@ -10888,7 +10882,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>226</v>
       </c>
@@ -10929,7 +10923,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>262</v>
       </c>
@@ -10970,7 +10964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>262</v>
       </c>
@@ -11011,7 +11005,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>262</v>
       </c>
@@ -11052,7 +11046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>262</v>
       </c>
@@ -11093,7 +11087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>262</v>
       </c>
@@ -11134,7 +11128,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>262</v>
       </c>
@@ -11175,7 +11169,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>262</v>
       </c>
@@ -11216,7 +11210,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>262</v>
       </c>
@@ -11257,7 +11251,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>262</v>
       </c>
@@ -11298,7 +11292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>262</v>
       </c>
@@ -11339,7 +11333,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>262</v>
       </c>
@@ -11380,7 +11374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>262</v>
       </c>
@@ -11421,7 +11415,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>262</v>
       </c>
@@ -11462,7 +11456,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>262</v>
       </c>
@@ -11503,7 +11497,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>262</v>
       </c>
@@ -11544,7 +11538,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>262</v>
       </c>
@@ -11585,7 +11579,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>262</v>
       </c>
@@ -11626,7 +11620,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>262</v>
       </c>
@@ -11667,7 +11661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>262</v>
       </c>
@@ -11708,7 +11702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>262</v>
       </c>
@@ -11749,7 +11743,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>262</v>
       </c>
@@ -11790,7 +11784,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>262</v>
       </c>
@@ -11831,7 +11825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>262</v>
       </c>
@@ -11872,7 +11866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>262</v>
       </c>
@@ -11913,7 +11907,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>262</v>
       </c>
@@ -11954,7 +11948,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>262</v>
       </c>
@@ -11995,7 +11989,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>262</v>
       </c>
@@ -12036,7 +12030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>262</v>
       </c>
@@ -12077,7 +12071,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>262</v>
       </c>
@@ -12118,7 +12112,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>262</v>
       </c>
@@ -12159,7 +12153,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>262</v>
       </c>
@@ -12200,7 +12194,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>262</v>
       </c>
@@ -12241,7 +12235,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>295</v>
       </c>
@@ -12282,7 +12276,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>295</v>
       </c>
@@ -12323,7 +12317,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>295</v>
       </c>
@@ -12364,7 +12358,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>295</v>
       </c>
@@ -12405,7 +12399,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>295</v>
       </c>
@@ -12446,7 +12440,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>295</v>
       </c>
@@ -12487,7 +12481,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>295</v>
       </c>
@@ -12528,7 +12522,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>295</v>
       </c>
@@ -12569,7 +12563,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>295</v>
       </c>
@@ -12610,7 +12604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>295</v>
       </c>
@@ -12651,7 +12645,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>295</v>
       </c>
@@ -12692,7 +12686,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>295</v>
       </c>
@@ -12733,7 +12727,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>295</v>
       </c>
@@ -12774,7 +12768,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>295</v>
       </c>
@@ -12815,7 +12809,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>295</v>
       </c>
@@ -12856,7 +12850,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>295</v>
       </c>
@@ -12897,7 +12891,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -12938,7 +12932,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>262</v>
       </c>
@@ -12979,7 +12973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>295</v>
       </c>
@@ -13020,7 +13014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>295</v>
       </c>
@@ -13061,7 +13055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>295</v>
       </c>
@@ -13102,7 +13096,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>295</v>
       </c>
@@ -13143,7 +13137,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>295</v>
       </c>
@@ -13184,7 +13178,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>295</v>
       </c>
@@ -13225,7 +13219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>295</v>
       </c>
@@ -13266,7 +13260,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>295</v>
       </c>
@@ -13307,7 +13301,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>295</v>
       </c>
@@ -13348,7 +13342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>295</v>
       </c>
@@ -13389,7 +13383,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>295</v>
       </c>
@@ -13430,7 +13424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>295</v>
       </c>
@@ -13471,7 +13465,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>295</v>
       </c>
@@ -13512,7 +13506,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>295</v>
       </c>
@@ -13553,7 +13547,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>295</v>
       </c>
@@ -13594,7 +13588,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>295</v>
       </c>
@@ -13635,7 +13629,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>328</v>
       </c>
@@ -13676,7 +13670,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>328</v>
       </c>
@@ -13717,7 +13711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>328</v>
       </c>
@@ -13758,7 +13752,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>328</v>
       </c>
@@ -13799,7 +13793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>328</v>
       </c>
@@ -13840,7 +13834,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>328</v>
       </c>
@@ -13881,7 +13875,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>328</v>
       </c>
@@ -13922,7 +13916,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>328</v>
       </c>
@@ -13963,7 +13957,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>328</v>
       </c>
@@ -14004,7 +13998,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>328</v>
       </c>
@@ -14045,7 +14039,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>328</v>
       </c>
@@ -14086,7 +14080,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>328</v>
       </c>
@@ -14127,7 +14121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>328</v>
       </c>
@@ -14168,7 +14162,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>328</v>
       </c>
@@ -14209,7 +14203,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>328</v>
       </c>
@@ -14250,7 +14244,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>328</v>
       </c>
@@ -14291,7 +14285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>328</v>
       </c>
@@ -14332,7 +14326,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>328</v>
       </c>
@@ -14373,7 +14367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>328</v>
       </c>
@@ -14414,7 +14408,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>328</v>
       </c>
@@ -14455,7 +14449,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>328</v>
       </c>
@@ -14496,7 +14490,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>328</v>
       </c>
@@ -14537,7 +14531,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>328</v>
       </c>
@@ -14578,7 +14572,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>328</v>
       </c>
@@ -14619,7 +14613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>328</v>
       </c>
@@ -14660,7 +14654,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>328</v>
       </c>
@@ -14701,7 +14695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>328</v>
       </c>
@@ -14742,7 +14736,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>328</v>
       </c>
@@ -14783,7 +14777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>328</v>
       </c>
@@ -14824,7 +14818,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>328</v>
       </c>
@@ -14865,7 +14859,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>328</v>
       </c>
@@ -14906,7 +14900,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>328</v>
       </c>
@@ -14947,7 +14941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>366</v>
       </c>
@@ -14988,7 +14982,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>366</v>
       </c>
@@ -15029,7 +15023,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>366</v>
       </c>
@@ -15070,7 +15064,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>366</v>
       </c>
@@ -15111,7 +15105,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>366</v>
       </c>
@@ -15152,7 +15146,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>366</v>
       </c>
@@ -15193,7 +15187,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>366</v>
       </c>
@@ -15234,7 +15228,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>366</v>
       </c>
@@ -15275,7 +15269,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>366</v>
       </c>
@@ -15316,7 +15310,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>366</v>
       </c>
@@ -15357,7 +15351,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>366</v>
       </c>
@@ -15398,7 +15392,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>366</v>
       </c>
@@ -15439,7 +15433,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>366</v>
       </c>
@@ -15480,7 +15474,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>366</v>
       </c>
@@ -15521,7 +15515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>366</v>
       </c>
@@ -15562,7 +15556,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>366</v>
       </c>
@@ -15603,7 +15597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>366</v>
       </c>
@@ -15644,7 +15638,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>366</v>
       </c>
@@ -15685,7 +15679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>366</v>
       </c>
@@ -15726,7 +15720,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>366</v>
       </c>
@@ -15767,7 +15761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>366</v>
       </c>
@@ -15808,7 +15802,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>366</v>
       </c>
@@ -15849,7 +15843,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>366</v>
       </c>
@@ -15890,7 +15884,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>366</v>
       </c>
@@ -15931,7 +15925,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>366</v>
       </c>
@@ -15972,7 +15966,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>366</v>
       </c>
@@ -16013,7 +16007,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>366</v>
       </c>
@@ -16054,7 +16048,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>366</v>
       </c>
@@ -16095,7 +16089,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>366</v>
       </c>
@@ -16136,7 +16130,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>366</v>
       </c>
@@ -16177,7 +16171,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>366</v>
       </c>
@@ -16218,7 +16212,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>366</v>
       </c>
@@ -16259,7 +16253,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>401</v>
       </c>
@@ -16300,7 +16294,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>401</v>
       </c>
@@ -16341,7 +16335,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>401</v>
       </c>
@@ -16382,7 +16376,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>401</v>
       </c>
@@ -16423,7 +16417,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>401</v>
       </c>
@@ -16464,7 +16458,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>401</v>
       </c>
@@ -16505,7 +16499,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>401</v>
       </c>
@@ -16546,7 +16540,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>401</v>
       </c>
@@ -16587,7 +16581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>401</v>
       </c>
@@ -16628,7 +16622,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>401</v>
       </c>
@@ -16669,7 +16663,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>401</v>
       </c>
@@ -16710,7 +16704,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>401</v>
       </c>
@@ -16751,7 +16745,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>401</v>
       </c>
@@ -16792,7 +16786,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>401</v>
       </c>
@@ -16833,7 +16827,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>401</v>
       </c>
@@ -16874,7 +16868,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>401</v>
       </c>
@@ -16915,7 +16909,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>401</v>
       </c>
@@ -16956,7 +16950,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>401</v>
       </c>
@@ -16997,7 +16991,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>401</v>
       </c>
@@ -17038,7 +17032,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>401</v>
       </c>
@@ -17079,7 +17073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>401</v>
       </c>
@@ -17120,7 +17114,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>401</v>
       </c>
@@ -17161,7 +17155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>401</v>
       </c>
@@ -17202,7 +17196,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>401</v>
       </c>
@@ -17243,7 +17237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>401</v>
       </c>
@@ -17284,7 +17278,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>401</v>
       </c>
@@ -17325,7 +17319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>401</v>
       </c>
@@ -17366,7 +17360,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>401</v>
       </c>
@@ -17407,7 +17401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>401</v>
       </c>
@@ -17448,7 +17442,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>401</v>
       </c>
@@ -17489,7 +17483,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>401</v>
       </c>
@@ -17530,7 +17524,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>401</v>
       </c>
@@ -17571,7 +17565,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>434</v>
       </c>
@@ -17612,7 +17606,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>434</v>
       </c>
@@ -17653,7 +17647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>434</v>
       </c>
@@ -17694,7 +17688,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>434</v>
       </c>
@@ -17735,7 +17729,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>434</v>
       </c>
@@ -17776,7 +17770,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>434</v>
       </c>
@@ -17817,7 +17811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>434</v>
       </c>
@@ -17858,7 +17852,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>434</v>
       </c>
@@ -17899,7 +17893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>434</v>
       </c>
@@ -17940,7 +17934,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>434</v>
       </c>
@@ -17981,7 +17975,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>434</v>
       </c>
@@ -18022,7 +18016,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>434</v>
       </c>
@@ -18063,7 +18057,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>434</v>
       </c>
@@ -18104,7 +18098,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>434</v>
       </c>
@@ -18145,7 +18139,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>434</v>
       </c>
@@ -18186,7 +18180,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>434</v>
       </c>
@@ -18227,7 +18221,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>434</v>
       </c>
@@ -18268,7 +18262,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>434</v>
       </c>
@@ -18309,7 +18303,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>434</v>
       </c>
@@ -18350,7 +18344,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>434</v>
       </c>
@@ -18391,7 +18385,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>434</v>
       </c>
@@ -18432,7 +18426,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>434</v>
       </c>
@@ -18473,7 +18467,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>434</v>
       </c>
@@ -18514,7 +18508,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>434</v>
       </c>
@@ -18555,7 +18549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>434</v>
       </c>
@@ -18596,7 +18590,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>434</v>
       </c>
@@ -18637,7 +18631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>434</v>
       </c>
@@ -18678,7 +18672,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>434</v>
       </c>
@@ -18719,7 +18713,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>434</v>
       </c>
@@ -18760,7 +18754,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>434</v>
       </c>
@@ -18801,7 +18795,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>434</v>
       </c>
@@ -18842,7 +18836,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>434</v>
       </c>
@@ -18883,7 +18877,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>328</v>
       </c>
@@ -18924,7 +18918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>328</v>
       </c>
@@ -18965,7 +18959,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>434</v>
       </c>
@@ -19006,7 +19000,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>434</v>
       </c>
@@ -19047,10 +19041,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C414"/>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C416"/>
     </row>
   </sheetData>
@@ -19058,7 +19052,6 @@
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -19072,13 +19065,13 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="60.875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>476</v>
       </c>
@@ -19089,7 +19082,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -19097,11 +19090,11 @@
         <v>479</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="11">
         <v>45062</v>
       </c>
       <c r="C3" t="s">
@@ -19109,56 +19102,11 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ProductFamily1 xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <DocType xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">-</DocType>
-    <AdminPublishingStatus xmlns="d6e223a9-2ed3-49eb-a144-c7920aace86d" xsi:nil="true"/>
-    <AdminComments xmlns="d6e223a9-2ed3-49eb-a144-c7920aace86d" xsi:nil="true"/>
-    <ProductFamily xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">-</ProductFamily>
-    <ProductLine1 xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <Product1 xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <TypeofDocument xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <BLPublishingStatus xmlns="d6e223a9-2ed3-49eb-a144-c7920aace86d">Not Ready for Publishing</BLPublishingStatus>
-    <RevisionDate xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="c4672b8b-43e2-4139-8cd1-27ad03f081e7" xsi:nil="true"/>
-    <f508be0a0b024b158bf26b5c5377e7cf xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f508be0a0b024b158bf26b5c5377e7cf>
-    <Product xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">-</Product>
-    <TypeofRequest xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <qttm xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <DocVersion xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <ProductLine xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">GPIS</ProductLine>
-    <b301e47fc8e747e89089776eea6c567d xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b301e47fc8e747e89089776eea6c567d>
-    <BriefDescription xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <KeyProduct_x0028_s_x0029_ xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <DocumentTitle xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007EDDDBC4FB296F4F9CB63BAE8760DE1A" ma:contentTypeVersion="54" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fc9298e5f362f8b2a2f1539074131357">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e6a1524d-d10d-4703-8343-a785c2cc36c3" xmlns:ns3="d6e223a9-2ed3-49eb-a144-c7920aace86d" xmlns:ns4="c4672b8b-43e2-4139-8cd1-27ad03f081e7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4374d41095fb9fe455f76c5bbb6d7977" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="e6a1524d-d10d-4703-8343-a785c2cc36c3"/>
@@ -19667,10 +19615,66 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ProductFamily1 xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <DocType xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">-</DocType>
+    <AdminPublishingStatus xmlns="d6e223a9-2ed3-49eb-a144-c7920aace86d" xsi:nil="true"/>
+    <AdminComments xmlns="d6e223a9-2ed3-49eb-a144-c7920aace86d" xsi:nil="true"/>
+    <ProductFamily xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">-</ProductFamily>
+    <ProductLine1 xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <Product1 xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <TypeofDocument xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <BLPublishingStatus xmlns="d6e223a9-2ed3-49eb-a144-c7920aace86d">Not Ready for Publishing</BLPublishingStatus>
+    <RevisionDate xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="c4672b8b-43e2-4139-8cd1-27ad03f081e7" xsi:nil="true"/>
+    <f508be0a0b024b158bf26b5c5377e7cf xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f508be0a0b024b158bf26b5c5377e7cf>
+    <Product xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">-</Product>
+    <TypeofRequest xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <qttm xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <DocVersion xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <ProductLine xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">GPIS</ProductLine>
+    <b301e47fc8e747e89089776eea6c567d xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b301e47fc8e747e89089776eea6c567d>
+    <BriefDescription xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <KeyProduct_x0028_s_x0029_ xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <DocumentTitle xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D85D5D23-A9E4-4E12-B1AB-482CBACB0142}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7CD1CAE-1C94-4628-9704-244F487C11F8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e6a1524d-d10d-4703-8343-a785c2cc36c3"/>
+    <ds:schemaRef ds:uri="d6e223a9-2ed3-49eb-a144-c7920aace86d"/>
+    <ds:schemaRef ds:uri="c4672b8b-43e2-4139-8cd1-27ad03f081e7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19688,21 +19692,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7CD1CAE-1C94-4628-9704-244F487C11F8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D85D5D23-A9E4-4E12-B1AB-482CBACB0142}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e6a1524d-d10d-4703-8343-a785c2cc36c3"/>
-    <ds:schemaRef ds:uri="d6e223a9-2ed3-49eb-a144-c7920aace86d"/>
-    <ds:schemaRef ds:uri="c4672b8b-43e2-4139-8cd1-27ad03f081e7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/S32K3/S32K3xx_part_number_dashboard.xlsx
+++ b/S32K3/S32K3xx_part_number_dashboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nxp1-my.sharepoint.com/personal/harpal_singh_nxp_com/Documents/computer_data_1Apr2024/A_Workspace/DS/K3/DS/Rev11/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nxp1-my.sharepoint.com/personal/harpal_singh_nxp_com/Documents/computer_data_1Apr2024/A_Workspace/DS/K3/DS/Rev12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{9187731B-B225-4F06-9277-C19420E82616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA77F91A-E704-4B6C-A667-5FC021399658}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{9187731B-B225-4F06-9277-C19420E82616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7542921-952E-46F9-9E5C-8561990A67E4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S32K3 part number dashboard" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_100_MaxQFP_GMUC">#REF!</definedName>
     <definedName name="_48_QFN_GMUC">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'S32K3 part number dashboard'!$A$2:$M$220</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'S32K3 part number dashboard'!$A$2:$M$236</definedName>
     <definedName name="DPConsolidatedGrossMarginkUSD">'[1]Data Processing'!$L$1295:$AD$1297</definedName>
     <definedName name="DPConsolidatedQuantity">'[1]Data Processing'!$L$948:$AD$950</definedName>
     <definedName name="DPConsolidatedSaleskUSD">'[1]Data Processing'!$L$1271:$AD$1273</definedName>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2859" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="321">
   <si>
     <t>Product</t>
   </si>
@@ -956,6 +956,63 @@
   </si>
   <si>
     <t xml:space="preserve">Improved clarify on Core and RAM description </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added S32K356 part numbers </t>
+  </si>
+  <si>
+    <t>S32K356</t>
+  </si>
+  <si>
+    <t>S32K356GHT1MJBSR</t>
+  </si>
+  <si>
+    <t>S32K356GHT1MJBST</t>
+  </si>
+  <si>
+    <t>S32K356GHT1MPCSR</t>
+  </si>
+  <si>
+    <t>S32K356GHT1MPCST</t>
+  </si>
+  <si>
+    <t>S32K356GHT1VJBSR</t>
+  </si>
+  <si>
+    <t>S32K356GHT1VJBST</t>
+  </si>
+  <si>
+    <t>S32K356GHT1VPCSR</t>
+  </si>
+  <si>
+    <t>S32K356GHT1VPCST</t>
+  </si>
+  <si>
+    <t>S32K356NHT1MJBSR</t>
+  </si>
+  <si>
+    <t>S32K356NHT1MJBST</t>
+  </si>
+  <si>
+    <t>S32K356NHT1MPCSR</t>
+  </si>
+  <si>
+    <t>S32K356NHT1MPCST</t>
+  </si>
+  <si>
+    <t>S32K356NHT1VJBSR</t>
+  </si>
+  <si>
+    <t>S32K356NHT1VJBST</t>
+  </si>
+  <si>
+    <t>S32K356NHT1VPCSR</t>
+  </si>
+  <si>
+    <t>S32K356NHT1VPCST</t>
+  </si>
+  <si>
+    <t>6MB</t>
   </si>
 </sst>
 </file>
@@ -1494,31 +1551,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75745F4E-7D5E-4F38-AD53-8B00FD2DCD73}">
-  <dimension ref="A1:AG220"/>
+  <dimension ref="A1:AG236"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:Q1048576"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.77734375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="37.44140625" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.21875" style="9"/>
+    <col min="15" max="15" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>257</v>
       </c>
@@ -1535,7 +1592,7 @@
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
     </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1577,7 +1634,7 @@
       </c>
       <c r="O2" s="9"/>
     </row>
-    <row r="3" spans="1:33" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1636,7 +1693,7 @@
       <c r="AF3" s="6"/>
       <c r="AG3" s="6"/>
     </row>
-    <row r="4" spans="1:33" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1696,7 +1753,7 @@
       <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1756,7 +1813,7 @@
       <c r="AF5" s="6"/>
       <c r="AG5" s="6"/>
     </row>
-    <row r="6" spans="1:33" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1815,7 +1872,7 @@
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1875,7 +1932,7 @@
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1935,7 +1992,7 @@
       <c r="AF8" s="6"/>
       <c r="AG8" s="6"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1977,7 +2034,7 @@
       </c>
       <c r="P9" s="6"/>
     </row>
-    <row r="10" spans="1:33" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2020,7 +2077,7 @@
       <c r="O10" s="10"/>
       <c r="P10" s="6"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2063,7 +2120,7 @@
       <c r="O11" s="8"/>
       <c r="P11" s="6"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2105,7 +2162,7 @@
       </c>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2148,7 +2205,7 @@
       <c r="O13" s="10"/>
       <c r="P13" s="6"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -2191,7 +2248,7 @@
       <c r="O14" s="8"/>
       <c r="P14" s="6"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -2233,7 +2290,7 @@
       </c>
       <c r="P15" s="6"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2276,7 +2333,7 @@
       <c r="O16" s="10"/>
       <c r="P16" s="6"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -2319,7 +2376,7 @@
       <c r="O17" s="8"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -2361,7 +2418,7 @@
       </c>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -2404,7 +2461,7 @@
       <c r="O19" s="10"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2447,7 +2504,7 @@
       <c r="O20" s="8"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -2489,7 +2546,7 @@
       </c>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -2532,7 +2589,7 @@
       <c r="O22" s="10"/>
       <c r="P22" s="6"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -2575,7 +2632,7 @@
       <c r="O23" s="8"/>
       <c r="P23" s="6"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -2617,7 +2674,7 @@
       </c>
       <c r="P24" s="6"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -2660,7 +2717,7 @@
       <c r="O25" s="10"/>
       <c r="P25" s="6"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -2703,7 +2760,7 @@
       <c r="O26" s="8"/>
       <c r="P26" s="6"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -2745,7 +2802,7 @@
       </c>
       <c r="P27" s="6"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -2788,7 +2845,7 @@
       <c r="O28" s="10"/>
       <c r="P28" s="6"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -2831,7 +2888,7 @@
       <c r="O29" s="8"/>
       <c r="P29" s="6"/>
     </row>
-    <row r="30" spans="1:16" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -2873,7 +2930,7 @@
       </c>
       <c r="P30" s="6"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -2916,7 +2973,7 @@
       <c r="O31" s="10"/>
       <c r="P31" s="6"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
@@ -2959,7 +3016,7 @@
       <c r="O32" s="8"/>
       <c r="P32" s="6"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -3001,7 +3058,7 @@
       </c>
       <c r="P33" s="6"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -3044,7 +3101,7 @@
       <c r="O34" s="10"/>
       <c r="P34" s="6"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -3087,7 +3144,7 @@
       <c r="O35" s="8"/>
       <c r="P35" s="6"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -3129,7 +3186,7 @@
       </c>
       <c r="P36" s="6"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -3172,7 +3229,7 @@
       <c r="O37" s="10"/>
       <c r="P37" s="6"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -3215,7 +3272,7 @@
       <c r="O38" s="8"/>
       <c r="P38" s="6"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>69</v>
       </c>
@@ -3257,7 +3314,7 @@
       </c>
       <c r="P39" s="6"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>69</v>
       </c>
@@ -3300,7 +3357,7 @@
       <c r="O40" s="10"/>
       <c r="P40" s="6"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>69</v>
       </c>
@@ -3343,7 +3400,7 @@
       <c r="O41" s="8"/>
       <c r="P41" s="6"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -3385,7 +3442,7 @@
       </c>
       <c r="P42" s="6"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -3428,7 +3485,7 @@
       <c r="O43" s="10"/>
       <c r="P43" s="6"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -3471,7 +3528,7 @@
       <c r="O44" s="8"/>
       <c r="P44" s="6"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -3513,7 +3570,7 @@
       </c>
       <c r="P45" s="6"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>69</v>
       </c>
@@ -3556,7 +3613,7 @@
       <c r="O46" s="10"/>
       <c r="P46" s="6"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>69</v>
       </c>
@@ -3599,7 +3656,7 @@
       <c r="O47" s="8"/>
       <c r="P47" s="6"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>69</v>
       </c>
@@ -3641,7 +3698,7 @@
       </c>
       <c r="P48" s="6"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>81</v>
       </c>
@@ -3684,7 +3741,7 @@
       <c r="O49" s="10"/>
       <c r="P49" s="6"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>81</v>
       </c>
@@ -3727,7 +3784,7 @@
       <c r="O50" s="8"/>
       <c r="P50" s="6"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -3769,7 +3826,7 @@
       </c>
       <c r="P51" s="6"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>81</v>
       </c>
@@ -3812,7 +3869,7 @@
       <c r="O52" s="10"/>
       <c r="P52" s="6"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>81</v>
       </c>
@@ -3855,7 +3912,7 @@
       <c r="O53" s="8"/>
       <c r="P53" s="6"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>81</v>
       </c>
@@ -3897,7 +3954,7 @@
       </c>
       <c r="P54" s="6"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>81</v>
       </c>
@@ -3940,7 +3997,7 @@
       <c r="O55" s="10"/>
       <c r="P55" s="6"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -3983,7 +4040,7 @@
       <c r="O56" s="8"/>
       <c r="P56" s="6"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>81</v>
       </c>
@@ -4025,7 +4082,7 @@
       </c>
       <c r="P57" s="6"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>81</v>
       </c>
@@ -4068,7 +4125,7 @@
       <c r="O58" s="10"/>
       <c r="P58" s="6"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>81</v>
       </c>
@@ -4111,7 +4168,7 @@
       <c r="O59" s="8"/>
       <c r="P59" s="6"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>81</v>
       </c>
@@ -4153,7 +4210,7 @@
       </c>
       <c r="P60" s="6"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>81</v>
       </c>
@@ -4196,7 +4253,7 @@
       <c r="O61" s="10"/>
       <c r="P61" s="6"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -4239,7 +4296,7 @@
       <c r="O62" s="8"/>
       <c r="P62" s="6"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -4281,7 +4338,7 @@
       </c>
       <c r="P63" s="6"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>81</v>
       </c>
@@ -4324,7 +4381,7 @@
       <c r="O64" s="10"/>
       <c r="P64" s="6"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>81</v>
       </c>
@@ -4367,7 +4424,7 @@
       <c r="O65" s="8"/>
       <c r="P65" s="6"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -4409,7 +4466,7 @@
       </c>
       <c r="P66" s="6"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>100</v>
       </c>
@@ -4452,7 +4509,7 @@
       <c r="O67" s="10"/>
       <c r="P67" s="6"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>100</v>
       </c>
@@ -4495,7 +4552,7 @@
       <c r="O68" s="8"/>
       <c r="P68" s="6"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>100</v>
       </c>
@@ -4537,7 +4594,7 @@
       </c>
       <c r="P69" s="6"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>100</v>
       </c>
@@ -4580,7 +4637,7 @@
       <c r="O70" s="10"/>
       <c r="P70" s="6"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>100</v>
       </c>
@@ -4623,7 +4680,7 @@
       <c r="O71" s="8"/>
       <c r="P71" s="6"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>100</v>
       </c>
@@ -4665,7 +4722,7 @@
       </c>
       <c r="P72" s="6"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>100</v>
       </c>
@@ -4708,7 +4765,7 @@
       <c r="O73" s="10"/>
       <c r="P73" s="6"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>100</v>
       </c>
@@ -4751,7 +4808,7 @@
       <c r="O74" s="8"/>
       <c r="P74" s="6"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>100</v>
       </c>
@@ -4793,7 +4850,7 @@
       </c>
       <c r="P75" s="6"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>100</v>
       </c>
@@ -4836,7 +4893,7 @@
       <c r="O76" s="10"/>
       <c r="P76" s="6"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>100</v>
       </c>
@@ -4879,7 +4936,7 @@
       <c r="O77" s="8"/>
       <c r="P77" s="6"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>100</v>
       </c>
@@ -4921,7 +4978,7 @@
       </c>
       <c r="P78" s="6"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>100</v>
       </c>
@@ -4964,7 +5021,7 @@
       <c r="O79" s="10"/>
       <c r="P79" s="6"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>100</v>
       </c>
@@ -5007,7 +5064,7 @@
       <c r="O80" s="8"/>
       <c r="P80" s="6"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -5049,7 +5106,7 @@
       </c>
       <c r="P81" s="6"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>100</v>
       </c>
@@ -5092,7 +5149,7 @@
       <c r="O82" s="10"/>
       <c r="P82" s="6"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -5135,7 +5192,7 @@
       <c r="O83" s="8"/>
       <c r="P83" s="6"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -5177,7 +5234,7 @@
       </c>
       <c r="P84" s="6"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>119</v>
       </c>
@@ -5220,7 +5277,7 @@
       <c r="O85" s="10"/>
       <c r="P85" s="6"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>119</v>
       </c>
@@ -5263,7 +5320,7 @@
       <c r="O86" s="8"/>
       <c r="P86" s="6"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>119</v>
       </c>
@@ -5305,7 +5362,7 @@
       </c>
       <c r="P87" s="6"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>119</v>
       </c>
@@ -5348,7 +5405,7 @@
       <c r="O88" s="10"/>
       <c r="P88" s="6"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>119</v>
       </c>
@@ -5391,7 +5448,7 @@
       <c r="O89" s="8"/>
       <c r="P89" s="6"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>119</v>
       </c>
@@ -5433,7 +5490,7 @@
       </c>
       <c r="P90" s="6"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>119</v>
       </c>
@@ -5476,7 +5533,7 @@
       <c r="O91" s="10"/>
       <c r="P91" s="6"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>119</v>
       </c>
@@ -5519,7 +5576,7 @@
       <c r="O92" s="8"/>
       <c r="P92" s="6"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>119</v>
       </c>
@@ -5561,7 +5618,7 @@
       </c>
       <c r="P93" s="6"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>119</v>
       </c>
@@ -5604,7 +5661,7 @@
       <c r="O94" s="10"/>
       <c r="P94" s="6"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>119</v>
       </c>
@@ -5647,7 +5704,7 @@
       <c r="O95" s="8"/>
       <c r="P95" s="6"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>119</v>
       </c>
@@ -5689,7 +5746,7 @@
       </c>
       <c r="P96" s="6"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>119</v>
       </c>
@@ -5732,7 +5789,7 @@
       <c r="O97" s="10"/>
       <c r="P97" s="6"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>119</v>
       </c>
@@ -5775,7 +5832,7 @@
       <c r="O98" s="8"/>
       <c r="P98" s="6"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>119</v>
       </c>
@@ -5817,7 +5874,7 @@
       </c>
       <c r="P99" s="6"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>119</v>
       </c>
@@ -5860,7 +5917,7 @@
       <c r="O100" s="10"/>
       <c r="P100" s="6"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>119</v>
       </c>
@@ -5903,7 +5960,7 @@
       <c r="O101" s="8"/>
       <c r="P101" s="6"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>119</v>
       </c>
@@ -5945,7 +6002,7 @@
       </c>
       <c r="P102" s="6"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>138</v>
       </c>
@@ -5988,7 +6045,7 @@
       <c r="O103" s="10"/>
       <c r="P103" s="6"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>138</v>
       </c>
@@ -6031,7 +6088,7 @@
       <c r="O104" s="8"/>
       <c r="P104" s="6"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>138</v>
       </c>
@@ -6073,7 +6130,7 @@
       </c>
       <c r="P105" s="6"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>138</v>
       </c>
@@ -6116,7 +6173,7 @@
       <c r="O106" s="10"/>
       <c r="P106" s="6"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>138</v>
       </c>
@@ -6159,7 +6216,7 @@
       <c r="O107" s="8"/>
       <c r="P107" s="6"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>138</v>
       </c>
@@ -6201,7 +6258,7 @@
       </c>
       <c r="P108" s="6"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>138</v>
       </c>
@@ -6244,7 +6301,7 @@
       <c r="O109" s="10"/>
       <c r="P109" s="6"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>138</v>
       </c>
@@ -6287,7 +6344,7 @@
       <c r="O110" s="8"/>
       <c r="P110" s="6"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>138</v>
       </c>
@@ -6329,7 +6386,7 @@
       </c>
       <c r="P111" s="6"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>138</v>
       </c>
@@ -6372,7 +6429,7 @@
       <c r="O112" s="10"/>
       <c r="P112" s="6"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>138</v>
       </c>
@@ -6415,7 +6472,7 @@
       <c r="O113" s="8"/>
       <c r="P113" s="6"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>138</v>
       </c>
@@ -6457,7 +6514,7 @@
       </c>
       <c r="P114" s="6"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>138</v>
       </c>
@@ -6500,7 +6557,7 @@
       <c r="O115" s="10"/>
       <c r="P115" s="6"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>138</v>
       </c>
@@ -6543,7 +6600,7 @@
       <c r="O116" s="8"/>
       <c r="P116" s="6"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>138</v>
       </c>
@@ -6585,7 +6642,7 @@
       </c>
       <c r="P117" s="6"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>138</v>
       </c>
@@ -6628,7 +6685,7 @@
       <c r="O118" s="10"/>
       <c r="P118" s="6"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>155</v>
       </c>
@@ -6671,7 +6728,7 @@
       <c r="O119" s="8"/>
       <c r="P119" s="6"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>155</v>
       </c>
@@ -6713,7 +6770,7 @@
       </c>
       <c r="P120" s="6"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>155</v>
       </c>
@@ -6756,7 +6813,7 @@
       <c r="O121" s="10"/>
       <c r="P121" s="6"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>155</v>
       </c>
@@ -6799,7 +6856,7 @@
       <c r="O122" s="8"/>
       <c r="P122" s="6"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>155</v>
       </c>
@@ -6841,7 +6898,7 @@
       </c>
       <c r="P123" s="6"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>155</v>
       </c>
@@ -6884,7 +6941,7 @@
       <c r="O124" s="10"/>
       <c r="P124" s="6"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>155</v>
       </c>
@@ -6927,7 +6984,7 @@
       <c r="O125" s="8"/>
       <c r="P125" s="6"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>155</v>
       </c>
@@ -6969,7 +7026,7 @@
       </c>
       <c r="P126" s="6"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>155</v>
       </c>
@@ -7012,7 +7069,7 @@
       <c r="O127" s="10"/>
       <c r="P127" s="6"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>155</v>
       </c>
@@ -7055,7 +7112,7 @@
       <c r="O128" s="8"/>
       <c r="P128" s="6"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>155</v>
       </c>
@@ -7097,7 +7154,7 @@
       </c>
       <c r="P129" s="6"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>155</v>
       </c>
@@ -7140,7 +7197,7 @@
       <c r="O130" s="10"/>
       <c r="P130" s="6"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>155</v>
       </c>
@@ -7183,7 +7240,7 @@
       <c r="O131" s="8"/>
       <c r="P131" s="6"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>155</v>
       </c>
@@ -7225,7 +7282,7 @@
       </c>
       <c r="P132" s="6"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>155</v>
       </c>
@@ -7268,7 +7325,7 @@
       <c r="O133" s="10"/>
       <c r="P133" s="6"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>155</v>
       </c>
@@ -7311,7 +7368,7 @@
       <c r="O134" s="8"/>
       <c r="P134" s="6"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>138</v>
       </c>
@@ -7353,7 +7410,7 @@
       </c>
       <c r="P135" s="6"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>138</v>
       </c>
@@ -7396,7 +7453,7 @@
       <c r="O136" s="10"/>
       <c r="P136" s="6"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>172</v>
       </c>
@@ -7439,7 +7496,7 @@
       <c r="O137" s="8"/>
       <c r="P137" s="6"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>172</v>
       </c>
@@ -7481,7 +7538,7 @@
       </c>
       <c r="P138" s="6"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>172</v>
       </c>
@@ -7524,7 +7581,7 @@
       <c r="O139" s="10"/>
       <c r="P139" s="6"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>172</v>
       </c>
@@ -7567,7 +7624,7 @@
       <c r="O140" s="8"/>
       <c r="P140" s="6"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>172</v>
       </c>
@@ -7609,7 +7666,7 @@
       </c>
       <c r="P141" s="6"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>172</v>
       </c>
@@ -7652,7 +7709,7 @@
       <c r="O142" s="10"/>
       <c r="P142" s="6"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>172</v>
       </c>
@@ -7695,7 +7752,7 @@
       <c r="O143" s="8"/>
       <c r="P143" s="6"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>172</v>
       </c>
@@ -7737,7 +7794,7 @@
       </c>
       <c r="P144" s="6"/>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>172</v>
       </c>
@@ -7780,7 +7837,7 @@
       <c r="O145" s="10"/>
       <c r="P145" s="6"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>172</v>
       </c>
@@ -7823,7 +7880,7 @@
       <c r="O146" s="8"/>
       <c r="P146" s="6"/>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>172</v>
       </c>
@@ -7865,7 +7922,7 @@
       </c>
       <c r="P147" s="6"/>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>172</v>
       </c>
@@ -7908,7 +7965,7 @@
       <c r="O148" s="10"/>
       <c r="P148" s="6"/>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>172</v>
       </c>
@@ -7951,7 +8008,7 @@
       <c r="O149" s="8"/>
       <c r="P149" s="6"/>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>172</v>
       </c>
@@ -7993,7 +8050,7 @@
       </c>
       <c r="P150" s="6"/>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>172</v>
       </c>
@@ -8036,7 +8093,7 @@
       <c r="O151" s="10"/>
       <c r="P151" s="6"/>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>172</v>
       </c>
@@ -8079,7 +8136,7 @@
       <c r="O152" s="8"/>
       <c r="P152" s="6"/>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>176</v>
       </c>
@@ -8121,7 +8178,7 @@
       </c>
       <c r="P153" s="6"/>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>176</v>
       </c>
@@ -8164,7 +8221,7 @@
       <c r="O154" s="10"/>
       <c r="P154" s="6"/>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>176</v>
       </c>
@@ -8207,7 +8264,7 @@
       <c r="O155" s="8"/>
       <c r="P155" s="6"/>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>176</v>
       </c>
@@ -8249,7 +8306,7 @@
       </c>
       <c r="P156" s="6"/>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>176</v>
       </c>
@@ -8292,7 +8349,7 @@
       <c r="O157" s="10"/>
       <c r="P157" s="6"/>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>176</v>
       </c>
@@ -8335,7 +8392,7 @@
       <c r="O158" s="8"/>
       <c r="P158" s="6"/>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>176</v>
       </c>
@@ -8377,7 +8434,7 @@
       </c>
       <c r="P159" s="6"/>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>176</v>
       </c>
@@ -8420,7 +8477,7 @@
       <c r="O160" s="10"/>
       <c r="P160" s="6"/>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>176</v>
       </c>
@@ -8463,7 +8520,7 @@
       <c r="O161" s="8"/>
       <c r="P161" s="6"/>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>176</v>
       </c>
@@ -8505,7 +8562,7 @@
       </c>
       <c r="P162" s="6"/>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>176</v>
       </c>
@@ -8548,7 +8605,7 @@
       <c r="O163" s="10"/>
       <c r="P163" s="6"/>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>176</v>
       </c>
@@ -8591,7 +8648,7 @@
       <c r="O164" s="8"/>
       <c r="P164" s="6"/>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>176</v>
       </c>
@@ -8633,7 +8690,7 @@
       </c>
       <c r="P165" s="6"/>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>176</v>
       </c>
@@ -8676,7 +8733,7 @@
       <c r="O166" s="10"/>
       <c r="P166" s="6"/>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>176</v>
       </c>
@@ -8719,7 +8776,7 @@
       <c r="O167" s="8"/>
       <c r="P167" s="6"/>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>176</v>
       </c>
@@ -8761,7 +8818,7 @@
       </c>
       <c r="P168" s="6"/>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>178</v>
       </c>
@@ -8804,7 +8861,7 @@
       <c r="O169" s="10"/>
       <c r="P169" s="6"/>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>178</v>
       </c>
@@ -8847,7 +8904,7 @@
       <c r="O170" s="8"/>
       <c r="P170" s="6"/>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>178</v>
       </c>
@@ -8889,7 +8946,7 @@
       </c>
       <c r="P171" s="6"/>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>178</v>
       </c>
@@ -8932,7 +8989,7 @@
       <c r="O172" s="10"/>
       <c r="P172" s="6"/>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>178</v>
       </c>
@@ -8975,7 +9032,7 @@
       <c r="O173" s="8"/>
       <c r="P173" s="6"/>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>178</v>
       </c>
@@ -9017,7 +9074,7 @@
       </c>
       <c r="P174" s="6"/>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>178</v>
       </c>
@@ -9060,7 +9117,7 @@
       <c r="O175" s="10"/>
       <c r="P175" s="6"/>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>178</v>
       </c>
@@ -9103,7 +9160,7 @@
       <c r="O176" s="8"/>
       <c r="P176" s="6"/>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>178</v>
       </c>
@@ -9145,7 +9202,7 @@
       </c>
       <c r="P177" s="6"/>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>178</v>
       </c>
@@ -9188,7 +9245,7 @@
       <c r="O178" s="10"/>
       <c r="P178" s="6"/>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -9231,7 +9288,7 @@
       <c r="O179" s="8"/>
       <c r="P179" s="6"/>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>178</v>
       </c>
@@ -9273,7 +9330,7 @@
       </c>
       <c r="P180" s="6"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>178</v>
       </c>
@@ -9316,7 +9373,7 @@
       <c r="O181" s="10"/>
       <c r="P181" s="6"/>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>178</v>
       </c>
@@ -9359,7 +9416,7 @@
       <c r="O182" s="8"/>
       <c r="P182" s="6"/>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>178</v>
       </c>
@@ -9401,7 +9458,7 @@
       </c>
       <c r="P183" s="6"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>178</v>
       </c>
@@ -9444,7 +9501,7 @@
       <c r="O184" s="10"/>
       <c r="P184" s="6"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>179</v>
       </c>
@@ -9487,7 +9544,7 @@
       <c r="O185" s="8"/>
       <c r="P185" s="6"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>179</v>
       </c>
@@ -9529,7 +9586,7 @@
       </c>
       <c r="P186" s="6"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>179</v>
       </c>
@@ -9572,7 +9629,7 @@
       <c r="O187" s="10"/>
       <c r="P187" s="6"/>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>179</v>
       </c>
@@ -9615,7 +9672,7 @@
       <c r="O188" s="8"/>
       <c r="P188" s="6"/>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>179</v>
       </c>
@@ -9657,7 +9714,7 @@
       </c>
       <c r="P189" s="6"/>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>179</v>
       </c>
@@ -9700,7 +9757,7 @@
       <c r="O190" s="10"/>
       <c r="P190" s="6"/>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>179</v>
       </c>
@@ -9743,7 +9800,7 @@
       <c r="O191" s="8"/>
       <c r="P191" s="6"/>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>179</v>
       </c>
@@ -9785,7 +9842,7 @@
       </c>
       <c r="P192" s="6"/>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>179</v>
       </c>
@@ -9828,7 +9885,7 @@
       <c r="O193" s="10"/>
       <c r="P193" s="6"/>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>179</v>
       </c>
@@ -9871,7 +9928,7 @@
       <c r="O194" s="8"/>
       <c r="P194" s="6"/>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>179</v>
       </c>
@@ -9913,7 +9970,7 @@
       </c>
       <c r="P195" s="6"/>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>179</v>
       </c>
@@ -9956,7 +10013,7 @@
       <c r="O196" s="10"/>
       <c r="P196" s="6"/>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>179</v>
       </c>
@@ -9999,7 +10056,7 @@
       <c r="O197" s="8"/>
       <c r="P197" s="6"/>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>179</v>
       </c>
@@ -10041,7 +10098,7 @@
       </c>
       <c r="P198" s="6"/>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>179</v>
       </c>
@@ -10084,7 +10141,7 @@
       <c r="O199" s="10"/>
       <c r="P199" s="6"/>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>179</v>
       </c>
@@ -10127,7 +10184,7 @@
       <c r="O200" s="8"/>
       <c r="P200" s="6"/>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>172</v>
       </c>
@@ -10169,7 +10226,7 @@
       </c>
       <c r="P201" s="6"/>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>172</v>
       </c>
@@ -10212,7 +10269,7 @@
       <c r="O202" s="10"/>
       <c r="P202" s="6"/>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>179</v>
       </c>
@@ -10255,7 +10312,7 @@
       <c r="O203" s="8"/>
       <c r="P203" s="6"/>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>179</v>
       </c>
@@ -10297,7 +10354,7 @@
       </c>
       <c r="P204" s="6"/>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>260</v>
       </c>
@@ -10340,7 +10397,7 @@
       <c r="O205" s="10"/>
       <c r="P205" s="6"/>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>260</v>
       </c>
@@ -10383,7 +10440,7 @@
       <c r="O206" s="8"/>
       <c r="P206" s="6"/>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>260</v>
       </c>
@@ -10425,7 +10482,7 @@
       </c>
       <c r="P207" s="6"/>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>260</v>
       </c>
@@ -10468,7 +10525,7 @@
       <c r="O208" s="10"/>
       <c r="P208" s="6"/>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>260</v>
       </c>
@@ -10511,7 +10568,7 @@
       <c r="O209" s="8"/>
       <c r="P209" s="6"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>260</v>
       </c>
@@ -10553,7 +10610,7 @@
       </c>
       <c r="P210" s="6"/>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>260</v>
       </c>
@@ -10596,7 +10653,7 @@
       <c r="O211" s="10"/>
       <c r="P211" s="6"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>260</v>
       </c>
@@ -10639,7 +10696,7 @@
       <c r="O212" s="8"/>
       <c r="P212" s="6"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>277</v>
       </c>
@@ -10681,7 +10738,7 @@
       </c>
       <c r="P213" s="6"/>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>277</v>
       </c>
@@ -10724,7 +10781,7 @@
       <c r="O214" s="10"/>
       <c r="P214" s="6"/>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>277</v>
       </c>
@@ -10767,7 +10824,7 @@
       <c r="O215" s="8"/>
       <c r="P215" s="6"/>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>277</v>
       </c>
@@ -10809,7 +10866,7 @@
       </c>
       <c r="P216" s="6"/>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>277</v>
       </c>
@@ -10852,7 +10909,7 @@
       <c r="O217" s="10"/>
       <c r="P217" s="6"/>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>277</v>
       </c>
@@ -10895,7 +10952,7 @@
       <c r="O218" s="8"/>
       <c r="P218" s="6"/>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>277</v>
       </c>
@@ -10937,7 +10994,7 @@
       </c>
       <c r="P219" s="6"/>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>277</v>
       </c>
@@ -10980,8 +11037,691 @@
       <c r="O220" s="10"/>
       <c r="P220" s="6"/>
     </row>
+    <row r="221" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>303</v>
+      </c>
+      <c r="B221" t="s">
+        <v>304</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D221" t="s">
+        <v>293</v>
+      </c>
+      <c r="E221" t="s">
+        <v>177</v>
+      </c>
+      <c r="F221" t="s">
+        <v>173</v>
+      </c>
+      <c r="G221" t="s">
+        <v>295</v>
+      </c>
+      <c r="H221" t="s">
+        <v>18</v>
+      </c>
+      <c r="I221" t="s">
+        <v>174</v>
+      </c>
+      <c r="J221" t="s">
+        <v>175</v>
+      </c>
+      <c r="K221" t="s">
+        <v>20</v>
+      </c>
+      <c r="L221" t="s">
+        <v>21</v>
+      </c>
+      <c r="M221" t="s">
+        <v>32</v>
+      </c>
+      <c r="O221" s="8"/>
+      <c r="P221" s="6"/>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>303</v>
+      </c>
+      <c r="B222" t="s">
+        <v>305</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D222" t="s">
+        <v>293</v>
+      </c>
+      <c r="E222" t="s">
+        <v>177</v>
+      </c>
+      <c r="F222" t="s">
+        <v>320</v>
+      </c>
+      <c r="G222" t="s">
+        <v>295</v>
+      </c>
+      <c r="H222" t="s">
+        <v>18</v>
+      </c>
+      <c r="I222" t="s">
+        <v>174</v>
+      </c>
+      <c r="J222" t="s">
+        <v>175</v>
+      </c>
+      <c r="K222" t="s">
+        <v>20</v>
+      </c>
+      <c r="L222" t="s">
+        <v>21</v>
+      </c>
+      <c r="M222" t="s">
+        <v>22</v>
+      </c>
+      <c r="P222" s="6"/>
+    </row>
+    <row r="223" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>303</v>
+      </c>
+      <c r="B223" t="s">
+        <v>306</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D223" t="s">
+        <v>293</v>
+      </c>
+      <c r="E223" t="s">
+        <v>177</v>
+      </c>
+      <c r="F223" t="s">
+        <v>320</v>
+      </c>
+      <c r="G223" t="s">
+        <v>295</v>
+      </c>
+      <c r="H223" t="s">
+        <v>18</v>
+      </c>
+      <c r="I223" t="s">
+        <v>174</v>
+      </c>
+      <c r="J223" t="s">
+        <v>192</v>
+      </c>
+      <c r="K223" t="s">
+        <v>20</v>
+      </c>
+      <c r="L223" t="s">
+        <v>21</v>
+      </c>
+      <c r="M223" t="s">
+        <v>32</v>
+      </c>
+      <c r="O223" s="10"/>
+      <c r="P223" s="6"/>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>303</v>
+      </c>
+      <c r="B224" t="s">
+        <v>307</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D224" t="s">
+        <v>293</v>
+      </c>
+      <c r="E224" t="s">
+        <v>177</v>
+      </c>
+      <c r="F224" t="s">
+        <v>320</v>
+      </c>
+      <c r="G224" t="s">
+        <v>295</v>
+      </c>
+      <c r="H224" t="s">
+        <v>18</v>
+      </c>
+      <c r="I224" t="s">
+        <v>174</v>
+      </c>
+      <c r="J224" t="s">
+        <v>192</v>
+      </c>
+      <c r="K224" t="s">
+        <v>20</v>
+      </c>
+      <c r="L224" t="s">
+        <v>21</v>
+      </c>
+      <c r="M224" t="s">
+        <v>22</v>
+      </c>
+      <c r="O224" s="8"/>
+      <c r="P224" s="6"/>
+    </row>
+    <row r="225" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>303</v>
+      </c>
+      <c r="B225" t="s">
+        <v>308</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D225" t="s">
+        <v>293</v>
+      </c>
+      <c r="E225" t="s">
+        <v>177</v>
+      </c>
+      <c r="F225" t="s">
+        <v>320</v>
+      </c>
+      <c r="G225" t="s">
+        <v>295</v>
+      </c>
+      <c r="H225" t="s">
+        <v>18</v>
+      </c>
+      <c r="I225" t="s">
+        <v>174</v>
+      </c>
+      <c r="J225" t="s">
+        <v>175</v>
+      </c>
+      <c r="K225" t="s">
+        <v>30</v>
+      </c>
+      <c r="L225" t="s">
+        <v>21</v>
+      </c>
+      <c r="M225" t="s">
+        <v>32</v>
+      </c>
+      <c r="P225" s="6"/>
+    </row>
+    <row r="226" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>303</v>
+      </c>
+      <c r="B226" t="s">
+        <v>309</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D226" t="s">
+        <v>293</v>
+      </c>
+      <c r="E226" t="s">
+        <v>177</v>
+      </c>
+      <c r="F226" t="s">
+        <v>320</v>
+      </c>
+      <c r="G226" t="s">
+        <v>295</v>
+      </c>
+      <c r="H226" t="s">
+        <v>18</v>
+      </c>
+      <c r="I226" t="s">
+        <v>174</v>
+      </c>
+      <c r="J226" t="s">
+        <v>175</v>
+      </c>
+      <c r="K226" t="s">
+        <v>30</v>
+      </c>
+      <c r="L226" t="s">
+        <v>21</v>
+      </c>
+      <c r="M226" t="s">
+        <v>22</v>
+      </c>
+      <c r="O226" s="10"/>
+      <c r="P226" s="6"/>
+    </row>
+    <row r="227" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>303</v>
+      </c>
+      <c r="B227" t="s">
+        <v>310</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D227" t="s">
+        <v>293</v>
+      </c>
+      <c r="E227" t="s">
+        <v>177</v>
+      </c>
+      <c r="F227" t="s">
+        <v>320</v>
+      </c>
+      <c r="G227" t="s">
+        <v>295</v>
+      </c>
+      <c r="H227" t="s">
+        <v>18</v>
+      </c>
+      <c r="I227" t="s">
+        <v>174</v>
+      </c>
+      <c r="J227" t="s">
+        <v>192</v>
+      </c>
+      <c r="K227" t="s">
+        <v>30</v>
+      </c>
+      <c r="L227" t="s">
+        <v>21</v>
+      </c>
+      <c r="M227" t="s">
+        <v>32</v>
+      </c>
+      <c r="O227" s="8"/>
+      <c r="P227" s="6"/>
+    </row>
+    <row r="228" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>303</v>
+      </c>
+      <c r="B228" t="s">
+        <v>311</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D228" t="s">
+        <v>293</v>
+      </c>
+      <c r="E228" t="s">
+        <v>177</v>
+      </c>
+      <c r="F228" t="s">
+        <v>320</v>
+      </c>
+      <c r="G228" t="s">
+        <v>295</v>
+      </c>
+      <c r="H228" t="s">
+        <v>18</v>
+      </c>
+      <c r="I228" t="s">
+        <v>174</v>
+      </c>
+      <c r="J228" t="s">
+        <v>192</v>
+      </c>
+      <c r="K228" t="s">
+        <v>30</v>
+      </c>
+      <c r="L228" t="s">
+        <v>21</v>
+      </c>
+      <c r="M228" t="s">
+        <v>22</v>
+      </c>
+      <c r="P228" s="6"/>
+    </row>
+    <row r="229" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>303</v>
+      </c>
+      <c r="B229" t="s">
+        <v>312</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D229" t="s">
+        <v>293</v>
+      </c>
+      <c r="E229" t="s">
+        <v>177</v>
+      </c>
+      <c r="F229" t="s">
+        <v>320</v>
+      </c>
+      <c r="G229" t="s">
+        <v>295</v>
+      </c>
+      <c r="H229" t="s">
+        <v>18</v>
+      </c>
+      <c r="I229" t="s">
+        <v>19</v>
+      </c>
+      <c r="J229" t="s">
+        <v>175</v>
+      </c>
+      <c r="K229" t="s">
+        <v>20</v>
+      </c>
+      <c r="L229" t="s">
+        <v>21</v>
+      </c>
+      <c r="M229" t="s">
+        <v>32</v>
+      </c>
+      <c r="O229" s="10"/>
+      <c r="P229" s="6"/>
+    </row>
+    <row r="230" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>303</v>
+      </c>
+      <c r="B230" t="s">
+        <v>313</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D230" t="s">
+        <v>293</v>
+      </c>
+      <c r="E230" t="s">
+        <v>177</v>
+      </c>
+      <c r="F230" t="s">
+        <v>320</v>
+      </c>
+      <c r="G230" t="s">
+        <v>295</v>
+      </c>
+      <c r="H230" t="s">
+        <v>18</v>
+      </c>
+      <c r="I230" t="s">
+        <v>19</v>
+      </c>
+      <c r="J230" t="s">
+        <v>175</v>
+      </c>
+      <c r="K230" t="s">
+        <v>20</v>
+      </c>
+      <c r="L230" t="s">
+        <v>21</v>
+      </c>
+      <c r="M230" t="s">
+        <v>22</v>
+      </c>
+      <c r="O230" s="8"/>
+      <c r="P230" s="6"/>
+    </row>
+    <row r="231" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>303</v>
+      </c>
+      <c r="B231" t="s">
+        <v>314</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D231" t="s">
+        <v>293</v>
+      </c>
+      <c r="E231" t="s">
+        <v>177</v>
+      </c>
+      <c r="F231" t="s">
+        <v>320</v>
+      </c>
+      <c r="G231" t="s">
+        <v>295</v>
+      </c>
+      <c r="H231" t="s">
+        <v>18</v>
+      </c>
+      <c r="I231" t="s">
+        <v>19</v>
+      </c>
+      <c r="J231" t="s">
+        <v>192</v>
+      </c>
+      <c r="K231" t="s">
+        <v>20</v>
+      </c>
+      <c r="L231" t="s">
+        <v>21</v>
+      </c>
+      <c r="M231" t="s">
+        <v>32</v>
+      </c>
+      <c r="P231" s="6"/>
+    </row>
+    <row r="232" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>303</v>
+      </c>
+      <c r="B232" t="s">
+        <v>315</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D232" t="s">
+        <v>293</v>
+      </c>
+      <c r="E232" t="s">
+        <v>177</v>
+      </c>
+      <c r="F232" t="s">
+        <v>320</v>
+      </c>
+      <c r="G232" t="s">
+        <v>295</v>
+      </c>
+      <c r="H232" t="s">
+        <v>18</v>
+      </c>
+      <c r="I232" t="s">
+        <v>19</v>
+      </c>
+      <c r="J232" t="s">
+        <v>192</v>
+      </c>
+      <c r="K232" t="s">
+        <v>20</v>
+      </c>
+      <c r="L232" t="s">
+        <v>21</v>
+      </c>
+      <c r="M232" t="s">
+        <v>22</v>
+      </c>
+      <c r="O232" s="10"/>
+      <c r="P232" s="6"/>
+    </row>
+    <row r="233" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>303</v>
+      </c>
+      <c r="B233" t="s">
+        <v>316</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D233" t="s">
+        <v>293</v>
+      </c>
+      <c r="E233" t="s">
+        <v>177</v>
+      </c>
+      <c r="F233" t="s">
+        <v>320</v>
+      </c>
+      <c r="G233" t="s">
+        <v>295</v>
+      </c>
+      <c r="H233" t="s">
+        <v>18</v>
+      </c>
+      <c r="I233" t="s">
+        <v>19</v>
+      </c>
+      <c r="J233" t="s">
+        <v>175</v>
+      </c>
+      <c r="K233" t="s">
+        <v>30</v>
+      </c>
+      <c r="L233" t="s">
+        <v>21</v>
+      </c>
+      <c r="M233" t="s">
+        <v>32</v>
+      </c>
+      <c r="O233" s="8"/>
+      <c r="P233" s="6"/>
+    </row>
+    <row r="234" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>303</v>
+      </c>
+      <c r="B234" t="s">
+        <v>317</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D234" t="s">
+        <v>293</v>
+      </c>
+      <c r="E234" t="s">
+        <v>177</v>
+      </c>
+      <c r="F234" t="s">
+        <v>320</v>
+      </c>
+      <c r="G234" t="s">
+        <v>295</v>
+      </c>
+      <c r="H234" t="s">
+        <v>18</v>
+      </c>
+      <c r="I234" t="s">
+        <v>19</v>
+      </c>
+      <c r="J234" t="s">
+        <v>175</v>
+      </c>
+      <c r="K234" t="s">
+        <v>30</v>
+      </c>
+      <c r="L234" t="s">
+        <v>21</v>
+      </c>
+      <c r="M234" t="s">
+        <v>22</v>
+      </c>
+      <c r="P234" s="6"/>
+    </row>
+    <row r="235" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>303</v>
+      </c>
+      <c r="B235" t="s">
+        <v>318</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D235" t="s">
+        <v>293</v>
+      </c>
+      <c r="E235" t="s">
+        <v>177</v>
+      </c>
+      <c r="F235" t="s">
+        <v>320</v>
+      </c>
+      <c r="G235" t="s">
+        <v>295</v>
+      </c>
+      <c r="H235" t="s">
+        <v>18</v>
+      </c>
+      <c r="I235" t="s">
+        <v>19</v>
+      </c>
+      <c r="J235" t="s">
+        <v>192</v>
+      </c>
+      <c r="K235" t="s">
+        <v>30</v>
+      </c>
+      <c r="L235" t="s">
+        <v>21</v>
+      </c>
+      <c r="M235" t="s">
+        <v>32</v>
+      </c>
+      <c r="O235" s="10"/>
+      <c r="P235" s="6"/>
+    </row>
+    <row r="236" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>303</v>
+      </c>
+      <c r="B236" t="s">
+        <v>319</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D236" t="s">
+        <v>293</v>
+      </c>
+      <c r="E236" t="s">
+        <v>177</v>
+      </c>
+      <c r="F236" t="s">
+        <v>320</v>
+      </c>
+      <c r="G236" t="s">
+        <v>295</v>
+      </c>
+      <c r="H236" t="s">
+        <v>18</v>
+      </c>
+      <c r="I236" t="s">
+        <v>19</v>
+      </c>
+      <c r="J236" t="s">
+        <v>192</v>
+      </c>
+      <c r="K236" t="s">
+        <v>30</v>
+      </c>
+      <c r="L236" t="s">
+        <v>21</v>
+      </c>
+      <c r="M236" t="s">
+        <v>22</v>
+      </c>
+      <c r="O236" s="8"/>
+      <c r="P236" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:M220" xr:uid="{3420B4CD-E5A7-4917-9830-C7287AACEB71}"/>
+  <autoFilter ref="A2:M236" xr:uid="{3420B4CD-E5A7-4917-9830-C7287AACEB71}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>
@@ -10992,19 +11732,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA4D436B-8055-44E3-A2FF-23B9BD8F9673}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="60.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>184</v>
       </c>
@@ -11015,7 +11755,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11023,7 +11763,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11034,7 +11774,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11045,7 +11785,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11056,7 +11796,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11067,7 +11807,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="11">
         <v>45495</v>
       </c>
@@ -11075,7 +11815,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -11086,7 +11826,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -11095,6 +11835,17 @@
       </c>
       <c r="C9" t="s">
         <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11">
+        <v>45838</v>
+      </c>
+      <c r="C10" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -11103,6 +11854,50 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ProductFamily1 xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <DocType xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">-</DocType>
+    <AdminPublishingStatus xmlns="d6e223a9-2ed3-49eb-a144-c7920aace86d" xsi:nil="true"/>
+    <AdminComments xmlns="d6e223a9-2ed3-49eb-a144-c7920aace86d" xsi:nil="true"/>
+    <ProductFamily xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">-</ProductFamily>
+    <ProductLine1 xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <Product1 xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <TypeofDocument xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <BLPublishingStatus xmlns="d6e223a9-2ed3-49eb-a144-c7920aace86d">Not Ready for Publishing</BLPublishingStatus>
+    <RevisionDate xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="c4672b8b-43e2-4139-8cd1-27ad03f081e7" xsi:nil="true"/>
+    <f508be0a0b024b158bf26b5c5377e7cf xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </f508be0a0b024b158bf26b5c5377e7cf>
+    <Product xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">-</Product>
+    <TypeofRequest xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <qttm xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <DocVersion xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <ProductLine xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">GPIS</ProductLine>
+    <b301e47fc8e747e89089776eea6c567d xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </b301e47fc8e747e89089776eea6c567d>
+    <BriefDescription xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <KeyProduct_x0028_s_x0029_ xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <DocumentTitle xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007EDDDBC4FB296F4F9CB63BAE8760DE1A" ma:contentTypeVersion="54" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fc9298e5f362f8b2a2f1539074131357">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e6a1524d-d10d-4703-8343-a785c2cc36c3" xmlns:ns3="d6e223a9-2ed3-49eb-a144-c7920aace86d" xmlns:ns4="c4672b8b-43e2-4139-8cd1-27ad03f081e7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4374d41095fb9fe455f76c5bbb6d7977" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="e6a1524d-d10d-4703-8343-a785c2cc36c3"/>
@@ -11611,51 +12406,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D85D5D23-A9E4-4E12-B1AB-482CBACB0142}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ProductFamily1 xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <DocType xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">-</DocType>
-    <AdminPublishingStatus xmlns="d6e223a9-2ed3-49eb-a144-c7920aace86d" xsi:nil="true"/>
-    <AdminComments xmlns="d6e223a9-2ed3-49eb-a144-c7920aace86d" xsi:nil="true"/>
-    <ProductFamily xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">-</ProductFamily>
-    <ProductLine1 xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <Product1 xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <TypeofDocument xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <BLPublishingStatus xmlns="d6e223a9-2ed3-49eb-a144-c7920aace86d">Not Ready for Publishing</BLPublishingStatus>
-    <RevisionDate xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="c4672b8b-43e2-4139-8cd1-27ad03f081e7" xsi:nil="true"/>
-    <f508be0a0b024b158bf26b5c5377e7cf xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </f508be0a0b024b158bf26b5c5377e7cf>
-    <Product xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">-</Product>
-    <TypeofRequest xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <qttm xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <DocVersion xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <ProductLine xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">GPIS</ProductLine>
-    <b301e47fc8e747e89089776eea6c567d xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </b301e47fc8e747e89089776eea6c567d>
-    <BriefDescription xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <KeyProduct_x0028_s_x0029_ xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <DocumentTitle xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e6a1524d-d10d-4703-8343-a785c2cc36c3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3885A1BC-8E66-40C5-AEFB-2E33C6BCFE01}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e6a1524d-d10d-4703-8343-a785c2cc36c3"/>
+    <ds:schemaRef ds:uri="d6e223a9-2ed3-49eb-a144-c7920aace86d"/>
+    <ds:schemaRef ds:uri="c4672b8b-43e2-4139-8cd1-27ad03f081e7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7CD1CAE-1C94-4628-9704-244F487C11F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11673,24 +12444,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D85D5D23-A9E4-4E12-B1AB-482CBACB0142}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3885A1BC-8E66-40C5-AEFB-2E33C6BCFE01}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e6a1524d-d10d-4703-8343-a785c2cc36c3"/>
-    <ds:schemaRef ds:uri="d6e223a9-2ed3-49eb-a144-c7920aace86d"/>
-    <ds:schemaRef ds:uri="c4672b8b-43e2-4139-8cd1-27ad03f081e7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>